--- a/Data Sources/Vehicles/CurrentULEVRegister.xlsx
+++ b/Data Sources/Vehicles/CurrentULEVRegister.xlsx
@@ -240,7 +240,7 @@
     <definedName name="Pop99a">!#REF!</definedName>
     <definedName name="POWYS" localSheetId="0">!#REF!</definedName>
     <definedName name="POWYS">!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$97</definedName>
     <definedName name="Print_Area_MI" localSheetId="0">!#REF!</definedName>
     <definedName name="Print_Area_MI">!#REF!</definedName>
     <definedName name="RANGE_CELLREF" localSheetId="0">!#REF!</definedName>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
   <si>
     <t>Department for Transport statistics</t>
   </si>
@@ -686,9 +686,6 @@
     <t>JAGUAR I-PACE</t>
   </si>
   <si>
-    <t>LEVC TX</t>
-  </si>
-  <si>
     <t>2019 Q2</t>
   </si>
   <si>
@@ -767,9 +764,6 @@
     <t>Buses &amp; coaches</t>
   </si>
   <si>
-    <t>Top 20 generic models from April 2019 to March 2020</t>
-  </si>
-  <si>
     <t>2020 Q1</t>
   </si>
   <si>
@@ -779,9 +773,6 @@
     <t>https://www.gov.uk/government/news/plug-in-vehicle-grants-update-following-todays-budget</t>
   </si>
   <si>
-    <t>Last updated: 1 July 2020</t>
-  </si>
-  <si>
     <t>MG ZS</t>
   </si>
   <si>
@@ -789,6 +780,18 @@
   </si>
   <si>
     <t>PORSCHE CAYENNE</t>
+  </si>
+  <si>
+    <t>2020 Q2</t>
+  </si>
+  <si>
+    <t>Top 20 generic models from July 2019 to June 2020</t>
+  </si>
+  <si>
+    <t>Last updated: 22 September 2020</t>
+  </si>
+  <si>
+    <t>VOLVO XC90</t>
   </si>
 </sst>
 </file>
@@ -1117,17 +1120,11 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1135,23 +1132,29 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5064,11 +5067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5178,88 +5181,88 @@
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="57"/>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="J7" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="K7" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="L7" s="51"/>
+      <c r="M7" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="T7" s="53" t="s">
+      <c r="T7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="53" t="s">
+      <c r="U7" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
     </row>
     <row r="9" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
@@ -8036,7 +8039,7 @@
     </row>
     <row r="56" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" s="44">
         <v>431</v>
@@ -8095,7 +8098,7 @@
     </row>
     <row r="57" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="44">
         <v>870</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="58" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="40">
         <v>792</v>
@@ -8211,94 +8214,130 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="45">
+    <row r="59" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="44">
         <v>1022</v>
       </c>
-      <c r="C59" s="45">
-        <v>0</v>
-      </c>
-      <c r="D59" s="45">
+      <c r="C59" s="44">
+        <v>0</v>
+      </c>
+      <c r="D59" s="44">
         <v>553</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="44">
         <v>1</v>
       </c>
-      <c r="F59" s="45">
-        <v>0</v>
-      </c>
-      <c r="G59" s="45">
+      <c r="F59" s="44">
+        <v>0</v>
+      </c>
+      <c r="G59" s="44">
         <v>1576</v>
       </c>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45">
+      <c r="H59" s="44"/>
+      <c r="I59" s="44">
         <v>5</v>
       </c>
-      <c r="J59" s="45">
+      <c r="J59" s="44">
         <v>13</v>
       </c>
-      <c r="K59" s="45">
+      <c r="K59" s="44">
         <v>18</v>
       </c>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45">
+      <c r="L59" s="44"/>
+      <c r="M59" s="44">
         <v>75</v>
       </c>
-      <c r="N59" s="45">
-        <v>0</v>
-      </c>
-      <c r="O59" s="45">
-        <v>0</v>
-      </c>
-      <c r="P59" s="45">
+      <c r="N59" s="44">
+        <v>0</v>
+      </c>
+      <c r="O59" s="44">
+        <v>0</v>
+      </c>
+      <c r="P59" s="44">
         <v>75</v>
       </c>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="45">
-        <v>0</v>
-      </c>
-      <c r="S59" s="45">
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44">
+        <v>0</v>
+      </c>
+      <c r="S59" s="44">
         <v>2</v>
       </c>
-      <c r="T59" s="45">
+      <c r="T59" s="44">
         <v>16</v>
       </c>
-      <c r="U59" s="45">
+      <c r="U59" s="44">
         <v>1687</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
+    <row r="60" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="45">
+        <v>518</v>
+      </c>
+      <c r="C60" s="45">
+        <v>0</v>
+      </c>
+      <c r="D60" s="45">
+        <v>253</v>
+      </c>
+      <c r="E60" s="45">
+        <v>0</v>
+      </c>
+      <c r="F60" s="45">
+        <v>0</v>
+      </c>
+      <c r="G60" s="45">
+        <v>771</v>
+      </c>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45">
+        <v>12</v>
+      </c>
+      <c r="J60" s="45">
+        <v>1</v>
+      </c>
+      <c r="K60" s="45">
+        <v>13</v>
+      </c>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45">
+        <v>28</v>
+      </c>
+      <c r="N60" s="45">
+        <v>2</v>
+      </c>
+      <c r="O60" s="45">
+        <v>0</v>
+      </c>
+      <c r="P60" s="45">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45">
+        <v>0</v>
+      </c>
+      <c r="S60" s="45">
+        <v>0</v>
+      </c>
+      <c r="T60" s="45">
+        <v>2</v>
+      </c>
+      <c r="U60" s="45">
+        <v>816</v>
+      </c>
     </row>
     <row r="61" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
-      <c r="E61" s="39"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
@@ -8316,180 +8355,144 @@
       <c r="T61" s="23"/>
       <c r="U61" s="23"/>
     </row>
-    <row r="62" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
+    <row r="62" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
     </row>
-    <row r="63" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
+    <row r="63" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+    </row>
+    <row r="64" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B64" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="53" t="s">
+      <c r="C64" s="57"/>
+      <c r="D64" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="53" t="s">
+      <c r="E64" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="53" t="s">
+      <c r="F64" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="53" t="s">
+      <c r="H64" s="51"/>
+      <c r="I64" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53" t="s">
+      <c r="J64" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="J63" s="53" t="s">
+      <c r="K64" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="K63" s="53" t="s">
+      <c r="L64" s="51"/>
+      <c r="M64" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N64" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="O64" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="P64" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="S64" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="N63" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O63" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="P63" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="S63" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="T63" s="53" t="s">
+      <c r="T64" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="U63" s="53" t="s">
+      <c r="U64" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="56"/>
-      <c r="B64" s="46" t="s">
+    <row r="65" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="55"/>
+      <c r="B65" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C65" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-    </row>
-    <row r="65" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="23">
-        <v>1002</v>
-      </c>
-      <c r="C65" s="23">
-        <v>0</v>
-      </c>
-      <c r="D65" s="23">
-        <v>0</v>
-      </c>
-      <c r="E65" s="23">
-        <v>0</v>
-      </c>
-      <c r="F65" s="23">
-        <v>0</v>
-      </c>
-      <c r="G65" s="23">
-        <v>1002</v>
-      </c>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23">
-        <v>0</v>
-      </c>
-      <c r="J65" s="23">
-        <v>0</v>
-      </c>
-      <c r="K65" s="23">
-        <v>0</v>
-      </c>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23">
-        <v>0</v>
-      </c>
-      <c r="N65" s="23">
-        <v>0</v>
-      </c>
-      <c r="O65" s="23">
-        <v>0</v>
-      </c>
-      <c r="P65" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23">
-        <v>0</v>
-      </c>
-      <c r="S65" s="23">
-        <v>0</v>
-      </c>
-      <c r="T65" s="23">
-        <v>0</v>
-      </c>
-      <c r="U65" s="23">
-        <v>1002</v>
-      </c>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
     </row>
     <row r="66" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B66" s="23">
-        <v>459</v>
+        <v>1235</v>
       </c>
       <c r="C66" s="23">
         <v>0</v>
@@ -8504,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="23">
-        <v>459</v>
+        <v>1235</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="23">
@@ -8540,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="23">
-        <v>459</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8554,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="23">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="E67" s="23">
         <v>0</v>
@@ -8563,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="23">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="H67" s="23"/>
       <c r="I67" s="23">
@@ -8599,21 +8602,21 @@
         <v>0</v>
       </c>
       <c r="U67" s="23">
-        <v>386</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B68" s="23">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="C68" s="23">
         <v>0</v>
       </c>
       <c r="D68" s="23">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="E68" s="23">
         <v>0</v>
@@ -8622,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="23">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="H68" s="23"/>
       <c r="I68" s="23">
@@ -8636,7 +8639,7 @@
       </c>
       <c r="L68" s="23"/>
       <c r="M68" s="23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N68" s="23">
         <v>0</v>
@@ -8645,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="23"/>
       <c r="R68" s="23">
@@ -8658,21 +8661,21 @@
         <v>0</v>
       </c>
       <c r="U68" s="23">
-        <v>363</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B69" s="23">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="C69" s="23">
         <v>0</v>
       </c>
       <c r="D69" s="23">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="E69" s="23">
         <v>0</v>
@@ -8681,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="23">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="23">
@@ -8695,7 +8698,7 @@
       </c>
       <c r="L69" s="23"/>
       <c r="M69" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N69" s="23">
         <v>0</v>
@@ -8704,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="23"/>
       <c r="R69" s="23">
@@ -8717,21 +8720,21 @@
         <v>0</v>
       </c>
       <c r="U69" s="23">
-        <v>302</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B70" s="23">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C70" s="23">
         <v>0</v>
       </c>
       <c r="D70" s="23">
-        <v>271</v>
+        <v>5</v>
       </c>
       <c r="E70" s="23">
         <v>0</v>
@@ -8740,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="23">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="H70" s="23"/>
       <c r="I70" s="23">
@@ -8776,15 +8779,15 @@
         <v>0</v>
       </c>
       <c r="U70" s="23">
-        <v>271</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B71" s="23">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C71" s="23">
         <v>0</v>
@@ -8799,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="23">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23">
@@ -8835,21 +8838,21 @@
         <v>0</v>
       </c>
       <c r="U71" s="23">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B72" s="23">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="C72" s="23">
         <v>0</v>
       </c>
       <c r="D72" s="23">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E72" s="23">
         <v>0</v>
@@ -8858,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="23">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23">
@@ -8894,15 +8897,15 @@
         <v>0</v>
       </c>
       <c r="U72" s="23">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B73" s="23">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="C73" s="23">
         <v>0</v>
@@ -8917,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="23">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23">
@@ -8931,7 +8934,7 @@
       </c>
       <c r="L73" s="23"/>
       <c r="M73" s="23">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="N73" s="23">
         <v>0</v>
@@ -8940,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="23">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="23"/>
       <c r="R73" s="23">
@@ -8958,16 +8961,16 @@
     </row>
     <row r="74" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B74" s="23">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="C74" s="23">
         <v>0</v>
       </c>
       <c r="D74" s="23">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E74" s="23">
         <v>0</v>
@@ -8976,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="23">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23">
@@ -9012,21 +9015,21 @@
         <v>0</v>
       </c>
       <c r="U74" s="23">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="23">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="C75" s="23">
         <v>0</v>
       </c>
       <c r="D75" s="23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E75" s="23">
         <v>0</v>
@@ -9035,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="23">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23">
@@ -9049,7 +9052,7 @@
       </c>
       <c r="L75" s="23"/>
       <c r="M75" s="23">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N75" s="23">
         <v>0</v>
@@ -9058,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="23">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="Q75" s="23"/>
       <c r="R75" s="23">
@@ -9071,21 +9074,21 @@
         <v>0</v>
       </c>
       <c r="U75" s="23">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B76" s="23">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C76" s="23">
         <v>0</v>
       </c>
       <c r="D76" s="23">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E76" s="23">
         <v>0</v>
@@ -9094,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23">
@@ -9130,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="23">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9138,13 +9141,13 @@
         <v>69</v>
       </c>
       <c r="B77" s="23">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C77" s="23">
         <v>0</v>
       </c>
       <c r="D77" s="23">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E77" s="23">
         <v>0</v>
@@ -9153,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="23">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23">
@@ -9189,21 +9192,21 @@
         <v>0</v>
       </c>
       <c r="U77" s="23">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B78" s="23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C78" s="23">
         <v>0</v>
       </c>
       <c r="D78" s="23">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E78" s="23">
         <v>0</v>
@@ -9212,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="23">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23">
@@ -9248,21 +9251,21 @@
         <v>0</v>
       </c>
       <c r="U78" s="23">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B79" s="23">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C79" s="23">
         <v>0</v>
       </c>
       <c r="D79" s="23">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E79" s="23">
         <v>0</v>
@@ -9271,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="23">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23">
@@ -9307,30 +9310,30 @@
         <v>0</v>
       </c>
       <c r="U79" s="23">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="23">
+        <v>76</v>
+      </c>
+      <c r="C80" s="23">
+        <v>0</v>
+      </c>
+      <c r="D80" s="23">
+        <v>20</v>
+      </c>
+      <c r="E80" s="23">
+        <v>0</v>
+      </c>
+      <c r="F80" s="23">
+        <v>0</v>
+      </c>
+      <c r="G80" s="23">
         <v>96</v>
-      </c>
-      <c r="B80" s="23">
-        <v>95</v>
-      </c>
-      <c r="C80" s="23">
-        <v>0</v>
-      </c>
-      <c r="D80" s="23">
-        <v>0</v>
-      </c>
-      <c r="E80" s="23">
-        <v>0</v>
-      </c>
-      <c r="F80" s="23">
-        <v>0</v>
-      </c>
-      <c r="G80" s="23">
-        <v>95</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23">
@@ -9366,21 +9369,21 @@
         <v>0</v>
       </c>
       <c r="U80" s="23">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B81" s="23">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C81" s="23">
         <v>0</v>
       </c>
       <c r="D81" s="23">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E81" s="23">
         <v>0</v>
@@ -9430,7 +9433,7 @@
     </row>
     <row r="82" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B82" s="23">
         <v>0</v>
@@ -9439,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="23">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E82" s="23">
         <v>0</v>
@@ -9448,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="23">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23">
@@ -9481,15 +9484,15 @@
         <v>0</v>
       </c>
       <c r="T82" s="23">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="U82" s="23">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" s="23">
         <v>0</v>
@@ -9498,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="23">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E83" s="23">
         <v>0</v>
@@ -9507,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="23">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23">
@@ -9543,324 +9546,347 @@
         <v>0</v>
       </c>
       <c r="U83" s="23">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="23">
+        <v>43</v>
+      </c>
+      <c r="C84" s="23">
+        <v>0</v>
+      </c>
+      <c r="D84" s="23">
+        <v>32</v>
+      </c>
+      <c r="E84" s="23">
+        <v>0</v>
+      </c>
+      <c r="F84" s="23">
+        <v>0</v>
+      </c>
+      <c r="G84" s="23">
+        <v>75</v>
+      </c>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23">
+        <v>0</v>
+      </c>
+      <c r="J84" s="23">
+        <v>0</v>
+      </c>
+      <c r="K84" s="23">
+        <v>0</v>
+      </c>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23">
+        <v>0</v>
+      </c>
+      <c r="N84" s="23">
+        <v>0</v>
+      </c>
+      <c r="O84" s="23">
+        <v>0</v>
+      </c>
+      <c r="P84" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23">
+        <v>0</v>
+      </c>
+      <c r="S84" s="23">
+        <v>0</v>
+      </c>
+      <c r="T84" s="23">
+        <v>0</v>
+      </c>
+      <c r="U84" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="24" t="s">
         <v>81</v>
       </c>
+      <c r="B85" s="25">
+        <v>0</v>
+      </c>
+      <c r="C85" s="25">
+        <v>0</v>
+      </c>
+      <c r="D85" s="25">
+        <v>0</v>
+      </c>
+      <c r="E85" s="25">
+        <v>0</v>
+      </c>
+      <c r="F85" s="25">
+        <v>0</v>
+      </c>
+      <c r="G85" s="25">
+        <v>0</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25">
+        <v>0</v>
+      </c>
+      <c r="J85" s="25">
+        <v>0</v>
+      </c>
+      <c r="K85" s="25">
+        <v>0</v>
+      </c>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25">
+        <v>75</v>
+      </c>
+      <c r="N85" s="25">
+        <v>0</v>
+      </c>
+      <c r="O85" s="25">
+        <v>0</v>
+      </c>
+      <c r="P85" s="25">
+        <v>75</v>
+      </c>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25">
+        <v>0</v>
+      </c>
+      <c r="S85" s="25">
+        <v>0</v>
+      </c>
+      <c r="T85" s="25">
+        <v>0</v>
+      </c>
+      <c r="U85" s="25">
+        <v>75</v>
+      </c>
     </row>
-    <row r="84" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="25">
-        <v>0</v>
-      </c>
-      <c r="C84" s="25">
-        <v>0</v>
-      </c>
-      <c r="D84" s="25">
-        <v>0</v>
-      </c>
-      <c r="E84" s="25">
-        <v>0</v>
-      </c>
-      <c r="F84" s="25">
-        <v>0</v>
-      </c>
-      <c r="G84" s="25">
-        <v>0</v>
-      </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25">
-        <v>0</v>
-      </c>
-      <c r="J84" s="25">
-        <v>0</v>
-      </c>
-      <c r="K84" s="25">
-        <v>0</v>
-      </c>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25">
-        <v>81</v>
-      </c>
-      <c r="N84" s="25">
-        <v>0</v>
-      </c>
-      <c r="O84" s="25">
-        <v>0</v>
-      </c>
-      <c r="P84" s="25">
-        <v>81</v>
-      </c>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25">
-        <v>0</v>
-      </c>
-      <c r="S84" s="25">
-        <v>0</v>
-      </c>
-      <c r="T84" s="25">
-        <v>0</v>
-      </c>
-      <c r="U84" s="25">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-    </row>
-    <row r="86" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="51"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
-      <c r="T86" s="32"/>
-      <c r="U86" s="32"/>
+    <row r="86" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
     </row>
     <row r="87" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+    </row>
+    <row r="88" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
     </row>
-    <row r="88" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+    <row r="89" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="37"/>
-      <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="1:21" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="37"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="58"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="58"/>
+    <row r="90" spans="1:21" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="R90" s="5"/>
     </row>
     <row r="91" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="58"/>
+      <c r="A91" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="53"/>
     </row>
     <row r="92" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="53"/>
+    </row>
+    <row r="93" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-    </row>
-    <row r="93" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
     </row>
     <row r="94" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="T94" s="5"/>
+      <c r="A94" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
     </row>
     <row r="95" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
+      <c r="A95" s="20"/>
       <c r="T95" s="5"/>
     </row>
-    <row r="96" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
-        <v>43</v>
-      </c>
+    <row r="96" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="30"/>
-      <c r="G96" s="31"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
+      <c r="G96" s="30"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
       <c r="T96" s="5"/>
     </row>
-    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="50" t="s">
+    <row r="97" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="30"/>
+      <c r="G97" s="31"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="33" t="s">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="33" t="s">
-        <v>94</v>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="33" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="A90:K90"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A89:K89"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="A87:K87"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -9871,15 +9897,51 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="U64:U65"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
     <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A90:K90"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="A92:K92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A88" r:id="rId2"/>
-    <hyperlink ref="A97" r:id="rId3"/>
-    <hyperlink ref="A90" r:id="rId4"/>
-    <hyperlink ref="A93" r:id="rId5"/>
-    <hyperlink ref="A91" r:id="rId6"/>
+    <hyperlink ref="A89" r:id="rId2"/>
+    <hyperlink ref="A98" r:id="rId3"/>
+    <hyperlink ref="A91" r:id="rId4"/>
+    <hyperlink ref="A94" r:id="rId5"/>
+    <hyperlink ref="A92" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId7"/>

--- a/Data Sources/Vehicles/CurrentULEVRegister.xlsx
+++ b/Data Sources/Vehicles/CurrentULEVRegister.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AFP\RLTDAll\STS\005 MOTORING AGENCIES\004 AD-HOC OUTPUTS\0013 Public enquiries\021 2019\Scotland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0007 Scotland\Region-Country versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -240,7 +240,7 @@
     <definedName name="Pop99a">!#REF!</definedName>
     <definedName name="POWYS" localSheetId="0">!#REF!</definedName>
     <definedName name="POWYS">!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$98</definedName>
     <definedName name="Print_Area_MI" localSheetId="0">!#REF!</definedName>
     <definedName name="Print_Area_MI">!#REF!</definedName>
     <definedName name="RANGE_CELLREF" localSheetId="0">!#REF!</definedName>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>Department for Transport statistics</t>
   </si>
@@ -594,9 +594,6 @@
     <t>MITSUBISHI OUTLANDER</t>
   </si>
   <si>
-    <t>BMW 5 SERIES</t>
-  </si>
-  <si>
     <t>NISSAN LEAF</t>
   </si>
   <si>
@@ -609,16 +606,10 @@
     <t>BMW I3</t>
   </si>
   <si>
-    <t>LAND ROVER RANGE ROVER</t>
-  </si>
-  <si>
     <t>MINI COUNTRYMAN</t>
   </si>
   <si>
     <t>RENAULT ZOE</t>
-  </si>
-  <si>
-    <t>HYUNDAI IONIQ</t>
   </si>
   <si>
     <t>KIA NIRO</t>
@@ -701,9 +692,6 @@
     <t>2019 Q4</t>
   </si>
   <si>
-    <t>RENAULT KANGOO</t>
-  </si>
-  <si>
     <t>AUDI E-TRON</t>
   </si>
   <si>
@@ -779,19 +767,34 @@
     <t>PEUGEOT 208</t>
   </si>
   <si>
-    <t>PORSCHE CAYENNE</t>
-  </si>
-  <si>
     <t>2020 Q2</t>
   </si>
   <si>
-    <t>Top 20 generic models from July 2019 to June 2020</t>
+    <t>2020 Q3</t>
   </si>
   <si>
-    <t>Last updated: 22 September 2020</t>
+    <t>Last updated: 17 December 2020</t>
   </si>
   <si>
-    <t>VOLVO XC90</t>
+    <t>Top 20 generic models from October 2019 to September 2020</t>
+  </si>
+  <si>
+    <t>MERCEDES A CLASS</t>
+  </si>
+  <si>
+    <t>HYUNDAI KONA</t>
+  </si>
+  <si>
+    <t>VAUXHALL CORSA</t>
+  </si>
+  <si>
+    <t>MERCEDES EQC CLASS</t>
+  </si>
+  <si>
+    <t>VOLVO XC40</t>
+  </si>
+  <si>
+    <t>FORD KUGA</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1002,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1123,17 +1126,11 @@
     <xf numFmtId="166" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1141,11 +1138,17 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1155,6 +1158,9 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5067,36 +5073,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" style="19" customWidth="1"/>
     <col min="2" max="3" width="17" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="19" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="19" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="19" customWidth="1"/>
-    <col min="18" max="21" width="13.42578125" style="19" customWidth="1"/>
-    <col min="22" max="16384" width="12.5703125" style="19"/>
+    <col min="4" max="4" width="17.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="5.26953125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="5.26953125" style="19" customWidth="1"/>
+    <col min="18" max="21" width="13.453125" style="19" customWidth="1"/>
+    <col min="22" max="16384" width="12.54296875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5107,7 +5113,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5128,7 +5134,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5136,7 +5142,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -5147,9 +5153,9 @@
       <c r="F4" s="8"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5157,7 +5163,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -5180,91 +5186,91 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="57" t="s">
+    <row r="7" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="L7" s="50"/>
+      <c r="M7" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="51" t="s">
+      <c r="T7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="51" t="s">
+      <c r="U7" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="53"/>
       <c r="B8" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
     </row>
-    <row r="9" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2010</v>
       </c>
@@ -5323,7 +5329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>2011</v>
       </c>
@@ -5382,7 +5388,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>2012</v>
       </c>
@@ -5441,7 +5447,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>2013</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>2014</v>
       </c>
@@ -5559,7 +5565,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>2015</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>2016</v>
       </c>
@@ -5677,7 +5683,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>2017</v>
       </c>
@@ -5736,7 +5742,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>2018</v>
       </c>
@@ -5795,7 +5801,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>2019</v>
       </c>
@@ -5854,9 +5860,9 @@
         <v>5066</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B19" s="15">
         <v>0</v>
@@ -5913,7 +5919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>9</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>10</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>11</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>12</v>
       </c>
@@ -6149,7 +6155,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>13</v>
       </c>
@@ -6208,7 +6214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>14</v>
       </c>
@@ -6267,7 +6273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
@@ -6326,7 +6332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>16</v>
       </c>
@@ -6385,7 +6391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>17</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>18</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>19</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>20</v>
       </c>
@@ -6621,7 +6627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>21</v>
       </c>
@@ -6680,7 +6686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>22</v>
       </c>
@@ -6739,7 +6745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>23</v>
       </c>
@@ -6798,7 +6804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>24</v>
       </c>
@@ -6857,7 +6863,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>25</v>
       </c>
@@ -6916,7 +6922,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>26</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>27</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>28</v>
       </c>
@@ -7093,7 +7099,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>29</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>30</v>
       </c>
@@ -7211,7 +7217,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>31</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>32</v>
       </c>
@@ -7329,7 +7335,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>33</v>
       </c>
@@ -7388,7 +7394,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>34</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>35</v>
       </c>
@@ -7506,7 +7512,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>36</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
         <v>37</v>
       </c>
@@ -7624,7 +7630,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>38</v>
       </c>
@@ -7683,7 +7689,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>39</v>
       </c>
@@ -7742,7 +7748,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>42</v>
       </c>
@@ -7801,7 +7807,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>45</v>
       </c>
@@ -7860,7 +7866,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>47</v>
       </c>
@@ -7919,7 +7925,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>56</v>
       </c>
@@ -7978,9 +7984,9 @@
         <v>922</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B55" s="44">
         <v>526</v>
@@ -8037,9 +8043,9 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B56" s="44">
         <v>431</v>
@@ -8096,9 +8102,9 @@
         <v>971</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B57" s="44">
         <v>870</v>
@@ -8155,9 +8161,9 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B58" s="40">
         <v>792</v>
@@ -8214,9 +8220,9 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B59" s="44">
         <v>1022</v>
@@ -8273,94 +8279,130 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="45">
+    <row r="60" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="44">
         <v>518</v>
       </c>
-      <c r="C60" s="45">
-        <v>0</v>
-      </c>
-      <c r="D60" s="45">
+      <c r="C60" s="44">
+        <v>0</v>
+      </c>
+      <c r="D60" s="44">
         <v>253</v>
       </c>
-      <c r="E60" s="45">
-        <v>0</v>
-      </c>
-      <c r="F60" s="45">
-        <v>0</v>
-      </c>
-      <c r="G60" s="45">
+      <c r="E60" s="44">
+        <v>0</v>
+      </c>
+      <c r="F60" s="44">
+        <v>0</v>
+      </c>
+      <c r="G60" s="44">
         <v>771</v>
       </c>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45">
+      <c r="H60" s="44"/>
+      <c r="I60" s="44">
         <v>12</v>
       </c>
-      <c r="J60" s="45">
+      <c r="J60" s="44">
         <v>1</v>
       </c>
-      <c r="K60" s="45">
+      <c r="K60" s="44">
         <v>13</v>
       </c>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45">
+      <c r="L60" s="44"/>
+      <c r="M60" s="44">
         <v>28</v>
       </c>
-      <c r="N60" s="45">
+      <c r="N60" s="44">
         <v>2</v>
       </c>
-      <c r="O60" s="45">
-        <v>0</v>
-      </c>
-      <c r="P60" s="45">
+      <c r="O60" s="44">
+        <v>0</v>
+      </c>
+      <c r="P60" s="44">
         <v>30</v>
       </c>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="45">
-        <v>0</v>
-      </c>
-      <c r="S60" s="45">
-        <v>0</v>
-      </c>
-      <c r="T60" s="45">
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44">
+        <v>0</v>
+      </c>
+      <c r="S60" s="44">
+        <v>0</v>
+      </c>
+      <c r="T60" s="44">
         <v>2</v>
       </c>
-      <c r="U60" s="45">
+      <c r="U60" s="44">
         <v>816</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
+    <row r="61" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="45">
+        <v>2080</v>
+      </c>
+      <c r="C61" s="45">
+        <v>0</v>
+      </c>
+      <c r="D61" s="45">
+        <v>1807</v>
+      </c>
+      <c r="E61" s="45">
+        <v>0</v>
+      </c>
+      <c r="F61" s="45">
+        <v>0</v>
+      </c>
+      <c r="G61" s="45">
+        <v>3887</v>
+      </c>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45">
+        <v>20</v>
+      </c>
+      <c r="J61" s="45">
+        <v>12</v>
+      </c>
+      <c r="K61" s="45">
+        <v>32</v>
+      </c>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45">
+        <v>103</v>
+      </c>
+      <c r="N61" s="45">
+        <v>1</v>
+      </c>
+      <c r="O61" s="45">
+        <v>0</v>
+      </c>
+      <c r="P61" s="45">
+        <v>104</v>
+      </c>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45">
+        <v>0</v>
+      </c>
+      <c r="S61" s="45">
+        <v>6</v>
+      </c>
+      <c r="T61" s="45">
+        <v>13</v>
+      </c>
+      <c r="U61" s="45">
+        <v>4042</v>
+      </c>
     </row>
-    <row r="62" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
-      <c r="E62" s="39"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
@@ -8378,186 +8420,150 @@
       <c r="T62" s="23"/>
       <c r="U62" s="23"/>
     </row>
-    <row r="63" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
+    <row r="63" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="21"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
     </row>
-    <row r="64" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="57" t="s">
+    <row r="64" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+    </row>
+    <row r="65" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="51" t="s">
+      <c r="C65" s="54"/>
+      <c r="D65" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E65" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="51" t="s">
+      <c r="F65" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J65" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="K65" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G64" s="51" t="s">
+      <c r="L65" s="50"/>
+      <c r="M65" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="N65" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="O65" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="P65" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="S65" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="J64" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="K64" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N64" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="O64" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="P64" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="S64" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="T64" s="51" t="s">
+      <c r="T65" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="U64" s="51" t="s">
+      <c r="U65" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="55"/>
-      <c r="B65" s="46" t="s">
+    <row r="66" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="53"/>
+      <c r="B66" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C66" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
     </row>
-    <row r="66" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="23">
-        <v>1235</v>
-      </c>
-      <c r="C66" s="23">
-        <v>0</v>
-      </c>
-      <c r="D66" s="23">
-        <v>0</v>
-      </c>
-      <c r="E66" s="23">
-        <v>0</v>
-      </c>
-      <c r="F66" s="23">
-        <v>0</v>
-      </c>
-      <c r="G66" s="23">
-        <v>1235</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23">
-        <v>0</v>
-      </c>
-      <c r="J66" s="23">
-        <v>0</v>
-      </c>
-      <c r="K66" s="23">
-        <v>0</v>
-      </c>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23">
-        <v>0</v>
-      </c>
-      <c r="N66" s="23">
-        <v>0</v>
-      </c>
-      <c r="O66" s="23">
-        <v>0</v>
-      </c>
-      <c r="P66" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23">
-        <v>0</v>
-      </c>
-      <c r="S66" s="23">
-        <v>0</v>
-      </c>
-      <c r="T66" s="23">
-        <v>0</v>
-      </c>
-      <c r="U66" s="23">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B67" s="23">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="C67" s="23">
         <v>0</v>
       </c>
       <c r="D67" s="23">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="E67" s="23">
         <v>0</v>
@@ -8566,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="23">
-        <v>433</v>
+        <v>1303</v>
       </c>
       <c r="H67" s="23"/>
       <c r="I67" s="23">
@@ -8602,21 +8608,21 @@
         <v>0</v>
       </c>
       <c r="U67" s="23">
-        <v>433</v>
+        <v>1303</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B68" s="23">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="C68" s="23">
         <v>0</v>
       </c>
       <c r="D68" s="23">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="E68" s="23">
         <v>0</v>
@@ -8625,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="23">
-        <v>429</v>
+        <v>558</v>
       </c>
       <c r="H68" s="23"/>
       <c r="I68" s="23">
@@ -8661,21 +8667,21 @@
         <v>0</v>
       </c>
       <c r="U68" s="23">
-        <v>429</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69" s="23">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="C69" s="23">
         <v>0</v>
       </c>
       <c r="D69" s="23">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="E69" s="23">
         <v>0</v>
@@ -8684,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="23">
-        <v>235</v>
+        <v>483</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="23">
@@ -8698,7 +8704,7 @@
       </c>
       <c r="L69" s="23"/>
       <c r="M69" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N69" s="23">
         <v>0</v>
@@ -8707,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="23"/>
       <c r="R69" s="23">
@@ -8720,21 +8726,21 @@
         <v>0</v>
       </c>
       <c r="U69" s="23">
-        <v>245</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B70" s="23">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="C70" s="23">
         <v>0</v>
       </c>
       <c r="D70" s="23">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="E70" s="23">
         <v>0</v>
@@ -8743,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="23">
-        <v>230</v>
+        <v>434</v>
       </c>
       <c r="H70" s="23"/>
       <c r="I70" s="23">
@@ -8779,15 +8785,15 @@
         <v>0</v>
       </c>
       <c r="U70" s="23">
-        <v>230</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B71" s="23">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="C71" s="23">
         <v>0</v>
@@ -8802,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="23">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23">
@@ -8838,21 +8844,21 @@
         <v>0</v>
       </c>
       <c r="U71" s="23">
-        <v>226</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B72" s="23">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="C72" s="23">
         <v>0</v>
       </c>
       <c r="D72" s="23">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="E72" s="23">
         <v>0</v>
@@ -8861,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="23">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23">
@@ -8897,15 +8903,15 @@
         <v>0</v>
       </c>
       <c r="U72" s="23">
-        <v>208</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B73" s="23">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="C73" s="23">
         <v>0</v>
@@ -8920,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="23">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23">
@@ -8956,21 +8962,21 @@
         <v>0</v>
       </c>
       <c r="U73" s="23">
-        <v>184</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B74" s="23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C74" s="23">
         <v>0</v>
       </c>
       <c r="D74" s="23">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="E74" s="23">
         <v>0</v>
@@ -8979,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="23">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23">
@@ -9015,15 +9021,15 @@
         <v>0</v>
       </c>
       <c r="U74" s="23">
-        <v>172</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B75" s="23">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="C75" s="23">
         <v>0</v>
@@ -9038,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="23">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23">
@@ -9052,7 +9058,7 @@
       </c>
       <c r="L75" s="23"/>
       <c r="M75" s="23">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="N75" s="23">
         <v>0</v>
@@ -9061,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="23">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="23"/>
       <c r="R75" s="23">
@@ -9074,21 +9080,21 @@
         <v>0</v>
       </c>
       <c r="U75" s="23">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B76" s="23">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="C76" s="23">
         <v>0</v>
       </c>
       <c r="D76" s="23">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E76" s="23">
         <v>0</v>
@@ -9097,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23">
@@ -9133,21 +9139,21 @@
         <v>0</v>
       </c>
       <c r="U76" s="23">
-        <v>126</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B77" s="23">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="C77" s="23">
         <v>0</v>
       </c>
       <c r="D77" s="23">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E77" s="23">
         <v>0</v>
@@ -9156,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="23">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23">
@@ -9192,21 +9198,21 @@
         <v>0</v>
       </c>
       <c r="U77" s="23">
-        <v>126</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B78" s="23">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C78" s="23">
         <v>0</v>
       </c>
       <c r="D78" s="23">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="E78" s="23">
         <v>0</v>
@@ -9215,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="23">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23">
@@ -9229,7 +9235,7 @@
       </c>
       <c r="L78" s="23"/>
       <c r="M78" s="23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N78" s="23">
         <v>0</v>
@@ -9238,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q78" s="23"/>
       <c r="R78" s="23">
@@ -9251,21 +9257,21 @@
         <v>0</v>
       </c>
       <c r="U78" s="23">
-        <v>105</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B79" s="23">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C79" s="23">
         <v>0</v>
       </c>
       <c r="D79" s="23">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E79" s="23">
         <v>0</v>
@@ -9274,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="23">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23">
@@ -9288,7 +9294,7 @@
       </c>
       <c r="L79" s="23"/>
       <c r="M79" s="23">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="N79" s="23">
         <v>0</v>
@@ -9297,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="23">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="Q79" s="23"/>
       <c r="R79" s="23">
@@ -9310,21 +9316,21 @@
         <v>0</v>
       </c>
       <c r="U79" s="23">
-        <v>101</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B80" s="23">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C80" s="23">
         <v>0</v>
       </c>
       <c r="D80" s="23">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E80" s="23">
         <v>0</v>
@@ -9333,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="23">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23">
@@ -9369,21 +9375,21 @@
         <v>0</v>
       </c>
       <c r="U80" s="23">
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B81" s="23">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C81" s="23">
         <v>0</v>
       </c>
       <c r="D81" s="23">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E81" s="23">
         <v>0</v>
@@ -9392,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="23">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23">
@@ -9428,21 +9434,21 @@
         <v>0</v>
       </c>
       <c r="U81" s="23">
-        <v>88</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B82" s="23">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C82" s="23">
         <v>0</v>
       </c>
       <c r="D82" s="23">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="E82" s="23">
         <v>0</v>
@@ -9451,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="23">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23">
@@ -9487,10 +9493,10 @@
         <v>0</v>
       </c>
       <c r="U82" s="23">
-        <v>81</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>98</v>
       </c>
@@ -9501,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="23">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="E83" s="23">
         <v>0</v>
@@ -9510,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="23">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23">
@@ -9546,21 +9552,21 @@
         <v>0</v>
       </c>
       <c r="U83" s="23">
-        <v>77</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B84" s="23">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C84" s="23">
         <v>0</v>
       </c>
       <c r="D84" s="23">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E84" s="23">
         <v>0</v>
@@ -9569,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="23">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23">
@@ -9605,288 +9611,384 @@
         <v>0</v>
       </c>
       <c r="U84" s="23">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" s="25">
-        <v>0</v>
-      </c>
-      <c r="C85" s="25">
-        <v>0</v>
-      </c>
-      <c r="D85" s="25">
-        <v>0</v>
-      </c>
-      <c r="E85" s="25">
-        <v>0</v>
-      </c>
-      <c r="F85" s="25">
-        <v>0</v>
-      </c>
-      <c r="G85" s="25">
-        <v>0</v>
-      </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25">
-        <v>0</v>
-      </c>
-      <c r="J85" s="25">
-        <v>0</v>
-      </c>
-      <c r="K85" s="25">
-        <v>0</v>
-      </c>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25">
-        <v>75</v>
-      </c>
-      <c r="N85" s="25">
-        <v>0</v>
-      </c>
-      <c r="O85" s="25">
-        <v>0</v>
-      </c>
-      <c r="P85" s="25">
-        <v>75</v>
-      </c>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25">
-        <v>0</v>
-      </c>
-      <c r="S85" s="25">
-        <v>0</v>
-      </c>
-      <c r="T85" s="25">
-        <v>0</v>
-      </c>
-      <c r="U85" s="25">
-        <v>75</v>
+    <row r="85" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="23">
+        <v>0</v>
+      </c>
+      <c r="C85" s="23">
+        <v>0</v>
+      </c>
+      <c r="D85" s="23">
+        <v>127</v>
+      </c>
+      <c r="E85" s="23">
+        <v>0</v>
+      </c>
+      <c r="F85" s="23">
+        <v>0</v>
+      </c>
+      <c r="G85" s="23">
+        <v>127</v>
+      </c>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23">
+        <v>0</v>
+      </c>
+      <c r="J85" s="23">
+        <v>0</v>
+      </c>
+      <c r="K85" s="23">
+        <v>0</v>
+      </c>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23">
+        <v>0</v>
+      </c>
+      <c r="N85" s="23">
+        <v>0</v>
+      </c>
+      <c r="O85" s="23">
+        <v>0</v>
+      </c>
+      <c r="P85" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23">
+        <v>0</v>
+      </c>
+      <c r="S85" s="23">
+        <v>0</v>
+      </c>
+      <c r="T85" s="23">
+        <v>0</v>
+      </c>
+      <c r="U85" s="23">
+        <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
+    <row r="86" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="25">
+        <v>0</v>
+      </c>
+      <c r="C86" s="25">
+        <v>0</v>
+      </c>
+      <c r="D86" s="25">
+        <v>119</v>
+      </c>
+      <c r="E86" s="25">
+        <v>0</v>
+      </c>
+      <c r="F86" s="25">
+        <v>0</v>
+      </c>
+      <c r="G86" s="25">
+        <v>119</v>
+      </c>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25">
+        <v>0</v>
+      </c>
+      <c r="J86" s="25">
+        <v>0</v>
+      </c>
+      <c r="K86" s="25">
+        <v>0</v>
+      </c>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25">
+        <v>0</v>
+      </c>
+      <c r="N86" s="25">
+        <v>0</v>
+      </c>
+      <c r="O86" s="25">
+        <v>0</v>
+      </c>
+      <c r="P86" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25">
+        <v>0</v>
+      </c>
+      <c r="S86" s="25">
+        <v>0</v>
+      </c>
+      <c r="T86" s="25">
+        <v>0</v>
+      </c>
+      <c r="U86" s="25">
+        <v>119</v>
+      </c>
     </row>
-    <row r="87" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
+    <row r="87" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
     </row>
-    <row r="88" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="60" t="s">
+    <row r="88" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+    </row>
+    <row r="89" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34"/>
+      <c r="S89" s="34"/>
     </row>
-    <row r="89" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="58" t="s">
+    <row r="90" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="58"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="37"/>
-      <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="1:21" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="56"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="37"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="53" t="s">
+    <row r="91" spans="1:21" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="57"/>
+      <c r="R91" s="5"/>
+    </row>
+    <row r="92" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
     </row>
-    <row r="92" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
+    <row r="93" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
     </row>
-    <row r="93" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="38" t="s">
+    <row r="94" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
     </row>
-    <row r="94" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="42" t="s">
+    <row r="95" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
     </row>
-    <row r="95" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="T95" s="5"/>
-    </row>
-    <row r="96" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+    <row r="96" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="20"/>
       <c r="T96" s="5"/>
     </row>
-    <row r="97" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
-        <v>43</v>
-      </c>
+    <row r="97" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="30"/>
-      <c r="G97" s="31"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
+      <c r="G97" s="30"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
       <c r="T97" s="5"/>
     </row>
-    <row r="98" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="50" t="s">
+    <row r="98" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="30"/>
+      <c r="G98" s="31"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A100" s="33" t="s">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A101" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A101" s="33" t="s">
-        <v>97</v>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A102" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -9897,51 +9999,14 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="U64:U65"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A90:K90"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="A92:K92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A89" r:id="rId2"/>
-    <hyperlink ref="A98" r:id="rId3"/>
-    <hyperlink ref="A91" r:id="rId4"/>
-    <hyperlink ref="A94" r:id="rId5"/>
-    <hyperlink ref="A92" r:id="rId6"/>
+    <hyperlink ref="A90" r:id="rId2"/>
+    <hyperlink ref="A99" r:id="rId3"/>
+    <hyperlink ref="A92" r:id="rId4"/>
+    <hyperlink ref="A95" r:id="rId5"/>
+    <hyperlink ref="A93" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId7"/>

--- a/Data Sources/Vehicles/CurrentULEVRegister.xlsx
+++ b/Data Sources/Vehicles/CurrentULEVRegister.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0007 Scotland\Region-Country versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0023 Region-Country versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -240,7 +240,7 @@
     <definedName name="Pop99a">!#REF!</definedName>
     <definedName name="POWYS" localSheetId="0">!#REF!</definedName>
     <definedName name="POWYS">!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$100</definedName>
     <definedName name="Print_Area_MI" localSheetId="0">!#REF!</definedName>
     <definedName name="Print_Area_MI">!#REF!</definedName>
     <definedName name="RANGE_CELLREF" localSheetId="0">!#REF!</definedName>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
   <si>
     <t>Department for Transport statistics</t>
   </si>
@@ -591,22 +591,13 @@
     <t>https://www.gov.uk/electric-bike-rules</t>
   </si>
   <si>
-    <t>MITSUBISHI OUTLANDER</t>
-  </si>
-  <si>
     <t>NISSAN LEAF</t>
   </si>
   <si>
     <t>BMW 3 SERIES</t>
   </si>
   <si>
-    <t>VOLKSWAGEN GOLF</t>
-  </si>
-  <si>
     <t>BMW I3</t>
-  </si>
-  <si>
-    <t>MINI COUNTRYMAN</t>
   </si>
   <si>
     <t>RENAULT ZOE</t>
@@ -773,12 +764,6 @@
     <t>2020 Q3</t>
   </si>
   <si>
-    <t>Last updated: 17 December 2020</t>
-  </si>
-  <si>
-    <t>Top 20 generic models from October 2019 to September 2020</t>
-  </si>
-  <si>
     <t>MERCEDES A CLASS</t>
   </si>
   <si>
@@ -794,7 +779,25 @@
     <t>VOLVO XC40</t>
   </si>
   <si>
-    <t>FORD KUGA</t>
+    <t>2020 Q4</t>
+  </si>
+  <si>
+    <t>Last updated: May 2021</t>
+  </si>
+  <si>
+    <t>Top 20 generic models from December 2019 to December 2020</t>
+  </si>
+  <si>
+    <t>PORSCHE TAYCAN</t>
+  </si>
+  <si>
+    <t>PEUGEOT 2008</t>
+  </si>
+  <si>
+    <t>MINI COOPER</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN ID3</t>
   </si>
 </sst>
 </file>
@@ -1126,26 +1129,26 @@
     <xf numFmtId="166" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1159,8 +1162,8 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5073,11 +5076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:U104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5155,7 +5158,7 @@
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5187,88 +5190,88 @@
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="K7" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="50" t="s">
+      <c r="T7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="50" t="s">
+      <c r="U7" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
     </row>
     <row r="9" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
@@ -5860,41 +5863,41 @@
         <v>5066</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>69</v>
+    <row r="19" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>2020</v>
       </c>
       <c r="B19" s="15">
-        <v>0</v>
+        <v>5911</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
       </c>
       <c r="D19" s="15">
-        <v>1</v>
+        <v>4656</v>
       </c>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="15">
         <v>0</v>
       </c>
       <c r="G19" s="15">
-        <v>1</v>
+        <v>10570</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J19" s="15">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="K19" s="15">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="15">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="N19" s="15">
         <v>3</v>
@@ -5903,25 +5906,25 @@
         <v>0</v>
       </c>
       <c r="P19" s="15">
-        <v>3</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" s="15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T19" s="15">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="U19" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B20" s="15">
         <v>0</v>
@@ -5930,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
@@ -5939,17 +5942,17 @@
         <v>0</v>
       </c>
       <c r="G20" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15">
         <v>0</v>
       </c>
       <c r="J20" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15">
@@ -5972,15 +5975,15 @@
         <v>0</v>
       </c>
       <c r="T20" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="15">
         <v>0</v>
@@ -5989,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -5998,30 +6001,30 @@
         <v>0</v>
       </c>
       <c r="G21" s="15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15">
         <v>0</v>
       </c>
       <c r="J21" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K21" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15">
         <v>0</v>
       </c>
       <c r="N21" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O21" s="15">
         <v>0</v>
       </c>
       <c r="P21" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="15"/>
       <c r="R21" s="15">
@@ -6034,12 +6037,12 @@
         <v>2</v>
       </c>
       <c r="U21" s="15">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="15">
         <v>0</v>
@@ -6048,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E22" s="15">
         <v>0</v>
@@ -6057,30 +6060,30 @@
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15">
         <v>0</v>
       </c>
       <c r="J22" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K22" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15">
         <v>0</v>
       </c>
       <c r="N22" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O22" s="15">
         <v>0</v>
       </c>
       <c r="P22" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="15">
@@ -6090,24 +6093,24 @@
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
       </c>
       <c r="D23" s="15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E23" s="15">
         <v>0</v>
@@ -6116,30 +6119,30 @@
         <v>0</v>
       </c>
       <c r="G23" s="15">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15">
         <v>0</v>
       </c>
       <c r="J23" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15">
         <v>0</v>
       </c>
       <c r="N23" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O23" s="15">
         <v>0</v>
       </c>
       <c r="P23" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15">
@@ -6149,24 +6152,24 @@
         <v>0</v>
       </c>
       <c r="T23" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U23" s="15">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="15">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
       </c>
       <c r="D24" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
@@ -6175,30 +6178,30 @@
         <v>0</v>
       </c>
       <c r="G24" s="15">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15">
         <v>0</v>
       </c>
       <c r="J24" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15">
         <v>0</v>
       </c>
       <c r="N24" s="15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O24" s="15">
         <v>0</v>
       </c>
       <c r="P24" s="15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15">
@@ -6208,24 +6211,24 @@
         <v>0</v>
       </c>
       <c r="T24" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U24" s="15">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="15">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C25" s="15">
         <v>0</v>
       </c>
       <c r="D25" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="15">
         <v>0</v>
@@ -6234,30 +6237,30 @@
         <v>0</v>
       </c>
       <c r="G25" s="15">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15">
         <v>0</v>
       </c>
       <c r="J25" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="15">
         <v>0</v>
       </c>
       <c r="N25" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O25" s="15">
         <v>0</v>
       </c>
       <c r="P25" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="15"/>
       <c r="R25" s="15">
@@ -6267,24 +6270,24 @@
         <v>0</v>
       </c>
       <c r="T25" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U25" s="15">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
       </c>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
@@ -6293,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="15">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15">
@@ -6307,16 +6310,16 @@
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
         <v>1</v>
       </c>
-      <c r="N26" s="15">
-        <v>10</v>
-      </c>
       <c r="O26" s="15">
         <v>0</v>
       </c>
       <c r="P26" s="15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="15">
@@ -6326,24 +6329,24 @@
         <v>0</v>
       </c>
       <c r="T26" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="15">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
       </c>
       <c r="D27" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="15">
         <v>0</v>
@@ -6352,30 +6355,30 @@
         <v>0</v>
       </c>
       <c r="G27" s="15">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15">
         <v>0</v>
       </c>
       <c r="J27" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="15"/>
       <c r="M27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O27" s="15">
         <v>0</v>
       </c>
       <c r="P27" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="15">
@@ -6385,56 +6388,56 @@
         <v>0</v>
       </c>
       <c r="T27" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27" s="15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D28" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
       </c>
       <c r="F28" s="15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G28" s="15">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15">
         <v>0</v>
       </c>
       <c r="J28" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N28" s="15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O28" s="15">
         <v>0</v>
       </c>
       <c r="P28" s="15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="15">
@@ -6444,21 +6447,21 @@
         <v>0</v>
       </c>
       <c r="T28" s="15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U28" s="15">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="15">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C29" s="15">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="15">
         <v>0</v>
@@ -6467,33 +6470,33 @@
         <v>0</v>
       </c>
       <c r="F29" s="15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G29" s="15">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15">
         <v>0</v>
       </c>
       <c r="J29" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="15"/>
       <c r="M29" s="15">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N29" s="15">
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0</v>
+      </c>
+      <c r="P29" s="15">
         <v>5</v>
-      </c>
-      <c r="O29" s="15">
-        <v>0</v>
-      </c>
-      <c r="P29" s="15">
-        <v>30</v>
       </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="15">
@@ -6503,24 +6506,24 @@
         <v>0</v>
       </c>
       <c r="T29" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U29" s="15">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>19</v>
+      <c r="A30" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B30" s="15">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C30" s="15">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D30" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
@@ -6529,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="15">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15">
@@ -6543,16 +6546,16 @@
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="15">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N30" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O30" s="15">
         <v>0</v>
       </c>
       <c r="P30" s="15">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="15"/>
       <c r="R30" s="15">
@@ -6565,30 +6568,30 @@
         <v>1</v>
       </c>
       <c r="U30" s="15">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="B31" s="15">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C31" s="15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D31" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
       </c>
       <c r="F31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="15">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15">
@@ -6602,7 +6605,7 @@
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N31" s="15">
         <v>0</v>
@@ -6611,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="15"/>
       <c r="R31" s="15">
@@ -6621,24 +6624,24 @@
         <v>0</v>
       </c>
       <c r="T31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="15">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C32" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
@@ -6647,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="15">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15">
@@ -6661,16 +6664,16 @@
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N32" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="15">
         <v>0</v>
       </c>
       <c r="P32" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q32" s="15"/>
       <c r="R32" s="15">
@@ -6680,33 +6683,33 @@
         <v>0</v>
       </c>
       <c r="T32" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U32" s="15">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>22</v>
+      <c r="A33" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B33" s="15">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C33" s="15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
       </c>
       <c r="F33" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="15">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15">
@@ -6720,52 +6723,52 @@
       </c>
       <c r="L33" s="15"/>
       <c r="M33" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="15">
         <v>0</v>
       </c>
       <c r="P33" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="15"/>
       <c r="R33" s="15">
         <v>0</v>
       </c>
       <c r="S33" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U33" s="15">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="15">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C34" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
       </c>
       <c r="F34" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="15">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15">
@@ -6779,10 +6782,10 @@
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" s="15">
         <v>0</v>
@@ -6795,24 +6798,24 @@
         <v>0</v>
       </c>
       <c r="S34" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="15">
         <v>1</v>
       </c>
       <c r="U34" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>24</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="B35" s="15">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C35" s="15">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D35" s="15">
         <v>0</v>
@@ -6824,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="15">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15">
@@ -6838,16 +6841,16 @@
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N35" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35" s="15">
         <v>0</v>
       </c>
       <c r="P35" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="15"/>
       <c r="R35" s="15">
@@ -6860,106 +6863,106 @@
         <v>1</v>
       </c>
       <c r="U35" s="15">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B36" s="15">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C36" s="15">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D36" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
       </c>
       <c r="F36" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="15">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" s="15">
         <v>0</v>
       </c>
       <c r="K36" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N36" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="15">
         <v>0</v>
       </c>
       <c r="P36" s="15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q36" s="15"/>
       <c r="R36" s="15">
         <v>0</v>
       </c>
       <c r="S36" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" s="15">
         <v>1</v>
       </c>
       <c r="U36" s="15">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="15">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C37" s="15">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D37" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
       </c>
       <c r="F37" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="15">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" s="15">
         <v>0</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N37" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" s="15">
         <v>0</v>
@@ -6972,50 +6975,50 @@
         <v>0</v>
       </c>
       <c r="S37" s="15">
+        <v>2</v>
+      </c>
+      <c r="T37" s="15">
         <v>1</v>
       </c>
-      <c r="T37" s="15">
-        <v>2</v>
-      </c>
       <c r="U37" s="15">
-        <v>284</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="15">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C38" s="15">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D38" s="15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
       </c>
       <c r="F38" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="15">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15">
         <v>0</v>
       </c>
       <c r="J38" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N38" s="15">
         <v>2</v>
@@ -7024,161 +7027,161 @@
         <v>0</v>
       </c>
       <c r="P38" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="15"/>
       <c r="R38" s="15">
         <v>0</v>
       </c>
       <c r="S38" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T38" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U38" s="15">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>28</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="B39" s="15">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C39" s="15">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="D39" s="15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
       </c>
       <c r="F39" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15">
         <v>0</v>
       </c>
       <c r="J39" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N39" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" s="15">
         <v>0</v>
       </c>
       <c r="P39" s="15">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q39" s="15"/>
       <c r="R39" s="15">
         <v>0</v>
       </c>
       <c r="S39" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" s="15">
         <v>0</v>
       </c>
       <c r="U39" s="15">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="15">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C40" s="15">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D40" s="15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" s="15">
         <v>0</v>
       </c>
       <c r="F40" s="15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G40" s="15">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15">
         <v>0</v>
       </c>
       <c r="J40" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N40" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" s="15">
         <v>0</v>
       </c>
       <c r="P40" s="15">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Q40" s="15"/>
       <c r="R40" s="15">
         <v>0</v>
       </c>
       <c r="S40" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T40" s="15">
         <v>0</v>
       </c>
       <c r="U40" s="15">
-        <v>338</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="15">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C41" s="15">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D41" s="15">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E41" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="15">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15">
@@ -7192,7 +7195,7 @@
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N41" s="15">
         <v>2</v>
@@ -7201,43 +7204,43 @@
         <v>0</v>
       </c>
       <c r="P41" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q41" s="15"/>
       <c r="R41" s="15">
         <v>0</v>
       </c>
       <c r="S41" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="15">
+        <v>0</v>
+      </c>
+      <c r="U41" s="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="15">
+        <v>123</v>
+      </c>
+      <c r="C42" s="15">
+        <v>145</v>
+      </c>
+      <c r="D42" s="15">
+        <v>11</v>
+      </c>
+      <c r="E42" s="15">
         <v>1</v>
       </c>
-      <c r="U41" s="15">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="15">
-        <v>188</v>
-      </c>
-      <c r="C42" s="15">
-        <v>151</v>
-      </c>
-      <c r="D42" s="15">
-        <v>2</v>
-      </c>
-      <c r="E42" s="15">
-        <v>0</v>
-      </c>
       <c r="F42" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="15">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15">
@@ -7251,7 +7254,7 @@
       </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N42" s="15">
         <v>2</v>
@@ -7260,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="15">
@@ -7270,92 +7273,92 @@
         <v>0</v>
       </c>
       <c r="T42" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="15">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="15">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C43" s="15">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="D43" s="15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E43" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F43" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="15">
-        <v>453</v>
+        <v>344</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15">
         <v>0</v>
       </c>
       <c r="J43" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N43" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43" s="15">
         <v>0</v>
       </c>
       <c r="P43" s="15">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="15">
+        <v>198</v>
+      </c>
+      <c r="C44" s="15">
+        <v>237</v>
+      </c>
+      <c r="D44" s="15">
+        <v>13</v>
+      </c>
+      <c r="E44" s="15">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15">
         <v>1</v>
       </c>
-      <c r="S43" s="15">
-        <v>0</v>
-      </c>
-      <c r="T43" s="15">
-        <v>2</v>
-      </c>
-      <c r="U43" s="15">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="15">
-        <v>131</v>
-      </c>
-      <c r="C44" s="15">
-        <v>132</v>
-      </c>
-      <c r="D44" s="15">
-        <v>8</v>
-      </c>
-      <c r="E44" s="15">
-        <v>21</v>
-      </c>
-      <c r="F44" s="15">
-        <v>0</v>
-      </c>
       <c r="G44" s="15">
-        <v>292</v>
+        <v>453</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15">
@@ -7369,7 +7372,7 @@
       </c>
       <c r="L44" s="15"/>
       <c r="M44" s="15">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N44" s="15">
         <v>0</v>
@@ -7378,57 +7381,57 @@
         <v>0</v>
       </c>
       <c r="P44" s="15">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="15">
         <v>0</v>
       </c>
       <c r="T44" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U44" s="15">
-        <v>316</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="15">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C45" s="15">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="D45" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F45" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="15">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15">
         <v>0</v>
       </c>
       <c r="J45" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="15">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N45" s="15">
         <v>0</v>
@@ -7437,60 +7440,60 @@
         <v>0</v>
       </c>
       <c r="P45" s="15">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
         <v>1</v>
       </c>
-      <c r="S45" s="15">
-        <v>0</v>
-      </c>
-      <c r="T45" s="15">
-        <v>0</v>
-      </c>
       <c r="U45" s="15">
-        <v>403</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="15">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C46" s="15">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="D46" s="15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E46" s="15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F46" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="15">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15">
         <v>0</v>
       </c>
       <c r="J46" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K46" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L46" s="15"/>
       <c r="M46" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N46" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" s="15">
         <v>0</v>
@@ -7500,7 +7503,7 @@
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="15">
         <v>0</v>
@@ -7509,53 +7512,53 @@
         <v>0</v>
       </c>
       <c r="U46" s="15">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="15">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="C47" s="15">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="D47" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E47" s="15">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
       </c>
       <c r="G47" s="15">
-        <v>666</v>
+        <v>304</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15">
         <v>0</v>
       </c>
       <c r="J47" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K47" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="N47" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" s="15">
         <v>0</v>
       </c>
       <c r="P47" s="15">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q47" s="15"/>
       <c r="R47" s="15">
@@ -7568,44 +7571,44 @@
         <v>0</v>
       </c>
       <c r="U47" s="15">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="15">
-        <v>248</v>
+        <v>347</v>
       </c>
       <c r="C48" s="15">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="D48" s="15">
         <v>14</v>
       </c>
       <c r="E48" s="15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F48" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="15">
-        <v>520</v>
+        <v>666</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15">
         <v>0</v>
       </c>
       <c r="J48" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K48" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L48" s="15"/>
       <c r="M48" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N48" s="15">
         <v>1</v>
@@ -7614,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q48" s="15"/>
       <c r="R48" s="15">
@@ -7624,47 +7627,47 @@
         <v>0</v>
       </c>
       <c r="T48" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="15">
-        <v>549</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="15">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C49" s="15">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="D49" s="15">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E49" s="15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F49" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="15">
-        <v>721</v>
+        <v>520</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" s="15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K49" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L49" s="15"/>
       <c r="M49" s="15">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N49" s="15">
         <v>1</v>
@@ -7673,57 +7676,57 @@
         <v>0</v>
       </c>
       <c r="P49" s="15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q49" s="15"/>
       <c r="R49" s="15">
         <v>0</v>
       </c>
       <c r="S49" s="15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T49" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="15">
-        <v>752</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="15">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="C50" s="15">
-        <v>338</v>
+        <v>415</v>
       </c>
       <c r="D50" s="15">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E50" s="15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="15">
-        <v>530</v>
+        <v>721</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15">
         <v>2</v>
       </c>
       <c r="J50" s="15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K50" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L50" s="15"/>
       <c r="M50" s="15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N50" s="15">
         <v>1</v>
@@ -7732,66 +7735,66 @@
         <v>0</v>
       </c>
       <c r="P50" s="15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q50" s="15"/>
       <c r="R50" s="15">
         <v>0</v>
       </c>
       <c r="S50" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T50" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U50" s="15">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B51" s="15">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="C51" s="15">
-        <v>502</v>
+        <v>338</v>
       </c>
       <c r="D51" s="15">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E51" s="15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
       </c>
       <c r="G51" s="15">
-        <v>824</v>
+        <v>530</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K51" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L51" s="15"/>
       <c r="M51" s="15">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N51" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" s="15">
         <v>0</v>
       </c>
       <c r="P51" s="15">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q51" s="15"/>
       <c r="R51" s="15">
@@ -7801,56 +7804,56 @@
         <v>0</v>
       </c>
       <c r="T51" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U51" s="15">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52" s="15">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C52" s="15">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="D52" s="15">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E52" s="15">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F52" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="15">
-        <v>895</v>
+        <v>824</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K52" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N52" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O52" s="15">
         <v>0</v>
       </c>
       <c r="P52" s="15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q52" s="15"/>
       <c r="R52" s="15">
@@ -7860,47 +7863,47 @@
         <v>0</v>
       </c>
       <c r="T52" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U52" s="15">
-        <v>927</v>
+        <v>845</v>
       </c>
     </row>
     <row r="53" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" s="15">
-        <v>294</v>
-      </c>
-      <c r="C53" s="40">
-        <v>447</v>
-      </c>
-      <c r="D53" s="40">
-        <v>51</v>
+        <v>283</v>
+      </c>
+      <c r="C53" s="15">
+        <v>544</v>
+      </c>
+      <c r="D53" s="15">
+        <v>62</v>
       </c>
       <c r="E53" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F53" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="15">
-        <v>794</v>
+        <v>895</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15">
+        <v>3</v>
+      </c>
+      <c r="J53" s="15">
         <v>5</v>
       </c>
-      <c r="J53" s="15">
-        <v>6</v>
-      </c>
       <c r="K53" s="15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L53" s="15"/>
       <c r="M53" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N53" s="15">
         <v>0</v>
@@ -7909,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="15"/>
       <c r="R53" s="15">
@@ -7919,47 +7922,47 @@
         <v>0</v>
       </c>
       <c r="T53" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U53" s="15">
-        <v>835</v>
+        <v>927</v>
       </c>
     </row>
     <row r="54" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B54" s="15">
-        <v>276</v>
-      </c>
-      <c r="C54" s="15">
-        <v>62</v>
-      </c>
-      <c r="D54" s="15">
-        <v>538</v>
+        <v>294</v>
+      </c>
+      <c r="C54" s="40">
+        <v>447</v>
+      </c>
+      <c r="D54" s="40">
+        <v>51</v>
       </c>
       <c r="E54" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="15">
-        <v>877</v>
+        <v>794</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J54" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K54" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N54" s="15">
         <v>0</v>
@@ -7968,152 +7971,152 @@
         <v>0</v>
       </c>
       <c r="P54" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q54" s="15"/>
       <c r="R54" s="15">
         <v>0</v>
       </c>
       <c r="S54" s="15">
+        <v>0</v>
+      </c>
+      <c r="T54" s="15">
+        <v>8</v>
+      </c>
+      <c r="U54" s="15">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="15">
+        <v>276</v>
+      </c>
+      <c r="C55" s="15">
+        <v>62</v>
+      </c>
+      <c r="D55" s="15">
+        <v>538</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0</v>
+      </c>
+      <c r="F55" s="15">
         <v>1</v>
       </c>
-      <c r="T54" s="15">
+      <c r="G55" s="15">
+        <v>877</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15">
+        <v>2</v>
+      </c>
+      <c r="J55" s="15">
+        <v>7</v>
+      </c>
+      <c r="K55" s="15">
+        <v>9</v>
+      </c>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15">
+        <v>21</v>
+      </c>
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>1</v>
+      </c>
+      <c r="T55" s="15">
         <v>14</v>
       </c>
-      <c r="U54" s="15">
+      <c r="U55" s="15">
         <v>922</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="44">
+    <row r="56" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="44">
         <v>526</v>
       </c>
-      <c r="C55" s="44">
-        <v>0</v>
-      </c>
-      <c r="D55" s="44">
+      <c r="C56" s="44">
+        <v>0</v>
+      </c>
+      <c r="D56" s="44">
         <v>569</v>
       </c>
-      <c r="E55" s="44">
-        <v>0</v>
-      </c>
-      <c r="F55" s="44">
-        <v>0</v>
-      </c>
-      <c r="G55" s="44">
+      <c r="E56" s="44">
+        <v>0</v>
+      </c>
+      <c r="F56" s="44">
+        <v>0</v>
+      </c>
+      <c r="G56" s="44">
         <v>1095</v>
-      </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44">
-        <v>3</v>
-      </c>
-      <c r="J55" s="44">
-        <v>7</v>
-      </c>
-      <c r="K55" s="44">
-        <v>10</v>
-      </c>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44">
-        <v>40</v>
-      </c>
-      <c r="N55" s="44">
-        <v>3</v>
-      </c>
-      <c r="O55" s="44">
-        <v>0</v>
-      </c>
-      <c r="P55" s="44">
-        <v>43</v>
-      </c>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44">
-        <v>0</v>
-      </c>
-      <c r="S55" s="44">
-        <v>0</v>
-      </c>
-      <c r="T55" s="44">
-        <v>24</v>
-      </c>
-      <c r="U55" s="44">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="44">
-        <v>431</v>
-      </c>
-      <c r="C56" s="44">
-        <v>0</v>
-      </c>
-      <c r="D56" s="44">
-        <v>458</v>
-      </c>
-      <c r="E56" s="44">
-        <v>0</v>
-      </c>
-      <c r="F56" s="44">
-        <v>0</v>
-      </c>
-      <c r="G56" s="44">
-        <v>889</v>
       </c>
       <c r="H56" s="44"/>
       <c r="I56" s="44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J56" s="44">
+        <v>7</v>
+      </c>
+      <c r="K56" s="44">
         <v>10</v>
-      </c>
-      <c r="K56" s="44">
-        <v>16</v>
       </c>
       <c r="L56" s="44"/>
       <c r="M56" s="44">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N56" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56" s="44">
         <v>0</v>
       </c>
       <c r="P56" s="44">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q56" s="44"/>
       <c r="R56" s="44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S56" s="44">
         <v>0</v>
       </c>
       <c r="T56" s="44">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="U56" s="44">
-        <v>971</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="57" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" s="44">
-        <v>870</v>
+        <v>431</v>
       </c>
       <c r="C57" s="44">
         <v>0</v>
       </c>
       <c r="D57" s="44">
-        <v>539</v>
+        <v>458</v>
       </c>
       <c r="E57" s="44">
         <v>0</v>
@@ -8122,57 +8125,57 @@
         <v>0</v>
       </c>
       <c r="G57" s="44">
-        <v>1409</v>
+        <v>889</v>
       </c>
       <c r="H57" s="44"/>
       <c r="I57" s="44">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J57" s="44">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K57" s="44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L57" s="44"/>
       <c r="M57" s="44">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N57" s="44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O57" s="44">
         <v>0</v>
       </c>
       <c r="P57" s="44">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q57" s="44"/>
       <c r="R57" s="44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S57" s="44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T57" s="44">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U57" s="44">
-        <v>1491</v>
+        <v>971</v>
       </c>
     </row>
     <row r="58" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="40">
-        <v>792</v>
-      </c>
-      <c r="C58" s="40">
-        <v>0</v>
-      </c>
-      <c r="D58" s="40">
-        <v>520</v>
+        <v>71</v>
+      </c>
+      <c r="B58" s="44">
+        <v>870</v>
+      </c>
+      <c r="C58" s="44">
+        <v>0</v>
+      </c>
+      <c r="D58" s="44">
+        <v>539</v>
       </c>
       <c r="E58" s="44">
         <v>0</v>
@@ -8181,80 +8184,80 @@
         <v>0</v>
       </c>
       <c r="G58" s="44">
-        <v>1312</v>
+        <v>1409</v>
       </c>
       <c r="H58" s="44"/>
       <c r="I58" s="44">
         <v>13</v>
       </c>
       <c r="J58" s="44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K58" s="44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L58" s="44"/>
       <c r="M58" s="44">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="N58" s="44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O58" s="44">
         <v>0</v>
       </c>
       <c r="P58" s="44">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="Q58" s="44"/>
       <c r="R58" s="44">
         <v>0</v>
       </c>
       <c r="S58" s="44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T58" s="44">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U58" s="44">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="44">
-        <v>1022</v>
-      </c>
-      <c r="C59" s="44">
-        <v>0</v>
-      </c>
-      <c r="D59" s="44">
-        <v>553</v>
+        <v>74</v>
+      </c>
+      <c r="B59" s="40">
+        <v>792</v>
+      </c>
+      <c r="C59" s="40">
+        <v>0</v>
+      </c>
+      <c r="D59" s="40">
+        <v>520</v>
       </c>
       <c r="E59" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="44">
         <v>0</v>
       </c>
       <c r="G59" s="44">
-        <v>1576</v>
+        <v>1312</v>
       </c>
       <c r="H59" s="44"/>
       <c r="I59" s="44">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J59" s="44">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K59" s="44">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L59" s="44"/>
       <c r="M59" s="44">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N59" s="44">
         <v>0</v>
@@ -8263,419 +8266,419 @@
         <v>0</v>
       </c>
       <c r="P59" s="44">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q59" s="44"/>
       <c r="R59" s="44">
         <v>0</v>
       </c>
       <c r="S59" s="44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T59" s="44">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="U59" s="44">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="61" t="s">
-        <v>90</v>
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="B60" s="44">
-        <v>518</v>
+        <v>1022</v>
       </c>
       <c r="C60" s="44">
         <v>0</v>
       </c>
       <c r="D60" s="44">
-        <v>253</v>
+        <v>553</v>
       </c>
       <c r="E60" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="44">
         <v>0</v>
       </c>
       <c r="G60" s="44">
-        <v>771</v>
+        <v>1576</v>
       </c>
       <c r="H60" s="44"/>
       <c r="I60" s="44">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J60" s="44">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K60" s="44">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L60" s="44"/>
       <c r="M60" s="44">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N60" s="44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O60" s="44">
         <v>0</v>
       </c>
       <c r="P60" s="44">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="Q60" s="44"/>
       <c r="R60" s="44">
         <v>0</v>
       </c>
       <c r="S60" s="44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T60" s="44">
+        <v>16</v>
+      </c>
+      <c r="U60" s="44">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="44">
+        <v>518</v>
+      </c>
+      <c r="C61" s="44">
+        <v>0</v>
+      </c>
+      <c r="D61" s="44">
+        <v>253</v>
+      </c>
+      <c r="E61" s="44">
+        <v>0</v>
+      </c>
+      <c r="F61" s="44">
+        <v>0</v>
+      </c>
+      <c r="G61" s="44">
+        <v>771</v>
+      </c>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44">
+        <v>12</v>
+      </c>
+      <c r="J61" s="44">
+        <v>1</v>
+      </c>
+      <c r="K61" s="44">
+        <v>13</v>
+      </c>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44">
+        <v>28</v>
+      </c>
+      <c r="N61" s="44">
         <v>2</v>
       </c>
-      <c r="U60" s="44">
+      <c r="O61" s="44">
+        <v>0</v>
+      </c>
+      <c r="P61" s="44">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44">
+        <v>0</v>
+      </c>
+      <c r="S61" s="44">
+        <v>0</v>
+      </c>
+      <c r="T61" s="44">
+        <v>2</v>
+      </c>
+      <c r="U61" s="44">
         <v>816</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="45">
+    <row r="62" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="44">
         <v>2080</v>
       </c>
-      <c r="C61" s="45">
-        <v>0</v>
-      </c>
-      <c r="D61" s="45">
+      <c r="C62" s="44">
+        <v>0</v>
+      </c>
+      <c r="D62" s="44">
         <v>1807</v>
       </c>
-      <c r="E61" s="45">
-        <v>0</v>
-      </c>
-      <c r="F61" s="45">
-        <v>0</v>
-      </c>
-      <c r="G61" s="45">
+      <c r="E62" s="44">
+        <v>0</v>
+      </c>
+      <c r="F62" s="44">
+        <v>0</v>
+      </c>
+      <c r="G62" s="44">
         <v>3887</v>
       </c>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45">
+      <c r="H62" s="44"/>
+      <c r="I62" s="44">
         <v>20</v>
       </c>
-      <c r="J61" s="45">
+      <c r="J62" s="44">
         <v>12</v>
       </c>
-      <c r="K61" s="45">
+      <c r="K62" s="44">
         <v>32</v>
       </c>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45">
+      <c r="L62" s="44"/>
+      <c r="M62" s="44">
         <v>103</v>
       </c>
-      <c r="N61" s="45">
+      <c r="N62" s="44">
         <v>1</v>
       </c>
-      <c r="O61" s="45">
-        <v>0</v>
-      </c>
-      <c r="P61" s="45">
+      <c r="O62" s="44">
+        <v>0</v>
+      </c>
+      <c r="P62" s="44">
         <v>104</v>
       </c>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="45">
-        <v>0</v>
-      </c>
-      <c r="S61" s="45">
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44">
+        <v>0</v>
+      </c>
+      <c r="S62" s="44">
         <v>6</v>
       </c>
-      <c r="T61" s="45">
+      <c r="T62" s="44">
         <v>13</v>
       </c>
-      <c r="U61" s="45">
+      <c r="U62" s="44">
         <v>4042</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-    </row>
-    <row r="63" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="21"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-    </row>
-    <row r="64" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-    </row>
-    <row r="65" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="54" t="s">
+    <row r="63" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="45">
+        <v>2277</v>
+      </c>
+      <c r="C63" s="45">
+        <v>0</v>
+      </c>
+      <c r="D63" s="45">
+        <v>2056</v>
+      </c>
+      <c r="E63" s="45">
+        <v>3</v>
+      </c>
+      <c r="F63" s="45">
+        <v>0</v>
+      </c>
+      <c r="G63" s="45">
+        <v>4336</v>
+      </c>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45">
+        <v>28</v>
+      </c>
+      <c r="J63" s="45">
+        <v>8</v>
+      </c>
+      <c r="K63" s="45">
+        <v>36</v>
+      </c>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45">
+        <v>50</v>
+      </c>
+      <c r="N63" s="45">
+        <v>0</v>
+      </c>
+      <c r="O63" s="45">
+        <v>0</v>
+      </c>
+      <c r="P63" s="45">
+        <v>50</v>
+      </c>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45">
+        <v>2</v>
+      </c>
+      <c r="S63" s="45">
+        <v>16</v>
+      </c>
+      <c r="T63" s="45">
+        <v>5</v>
+      </c>
+      <c r="U63" s="45">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+    </row>
+    <row r="65" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="21"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+    </row>
+    <row r="66" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+    </row>
+    <row r="67" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="50" t="s">
+      <c r="C67" s="61"/>
+      <c r="D67" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E67" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F67" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J67" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="50" t="s">
+      <c r="K67" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50" t="s">
+      <c r="L67" s="52"/>
+      <c r="M67" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="N67" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="O67" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="P67" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="S67" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="J65" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K65" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="L65" s="50"/>
-      <c r="M65" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="N65" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="O65" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="P65" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q65" s="50"/>
-      <c r="R65" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="S65" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="T65" s="50" t="s">
+      <c r="T67" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="U65" s="50" t="s">
+      <c r="U67" s="52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="53"/>
-      <c r="B66" s="46" t="s">
+    <row r="68" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="56"/>
+      <c r="B68" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C68" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="51"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="51"/>
-    </row>
-    <row r="67" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="23">
-        <v>1303</v>
-      </c>
-      <c r="C67" s="23">
-        <v>0</v>
-      </c>
-      <c r="D67" s="23">
-        <v>0</v>
-      </c>
-      <c r="E67" s="23">
-        <v>0</v>
-      </c>
-      <c r="F67" s="23">
-        <v>0</v>
-      </c>
-      <c r="G67" s="23">
-        <v>1303</v>
-      </c>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23">
-        <v>0</v>
-      </c>
-      <c r="J67" s="23">
-        <v>0</v>
-      </c>
-      <c r="K67" s="23">
-        <v>0</v>
-      </c>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23">
-        <v>0</v>
-      </c>
-      <c r="N67" s="23">
-        <v>0</v>
-      </c>
-      <c r="O67" s="23">
-        <v>0</v>
-      </c>
-      <c r="P67" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23">
-        <v>0</v>
-      </c>
-      <c r="S67" s="23">
-        <v>0</v>
-      </c>
-      <c r="T67" s="23">
-        <v>0</v>
-      </c>
-      <c r="U67" s="23">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="23">
-        <v>0</v>
-      </c>
-      <c r="C68" s="23">
-        <v>0</v>
-      </c>
-      <c r="D68" s="23">
-        <v>558</v>
-      </c>
-      <c r="E68" s="23">
-        <v>0</v>
-      </c>
-      <c r="F68" s="23">
-        <v>0</v>
-      </c>
-      <c r="G68" s="23">
-        <v>558</v>
-      </c>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23">
-        <v>0</v>
-      </c>
-      <c r="J68" s="23">
-        <v>0</v>
-      </c>
-      <c r="K68" s="23">
-        <v>0</v>
-      </c>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23">
-        <v>0</v>
-      </c>
-      <c r="N68" s="23">
-        <v>0</v>
-      </c>
-      <c r="O68" s="23">
-        <v>0</v>
-      </c>
-      <c r="P68" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="23">
-        <v>0</v>
-      </c>
-      <c r="S68" s="23">
-        <v>0</v>
-      </c>
-      <c r="T68" s="23">
-        <v>0</v>
-      </c>
-      <c r="U68" s="23">
-        <v>558</v>
-      </c>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="53"/>
+      <c r="U68" s="53"/>
     </row>
     <row r="69" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B69" s="23">
-        <v>483</v>
+        <v>1365</v>
       </c>
       <c r="C69" s="23">
         <v>0</v>
@@ -8690,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="23">
-        <v>483</v>
+        <v>1365</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="23">
@@ -8726,21 +8729,21 @@
         <v>0</v>
       </c>
       <c r="U69" s="23">
-        <v>483</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="70" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B70" s="23">
-        <v>358</v>
+        <v>690</v>
       </c>
       <c r="C70" s="23">
         <v>0</v>
       </c>
       <c r="D70" s="23">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E70" s="23">
         <v>0</v>
@@ -8749,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="23">
-        <v>434</v>
+        <v>776</v>
       </c>
       <c r="H70" s="23"/>
       <c r="I70" s="23">
@@ -8785,21 +8788,21 @@
         <v>0</v>
       </c>
       <c r="U70" s="23">
-        <v>434</v>
+        <v>776</v>
       </c>
     </row>
     <row r="71" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="23">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="C71" s="23">
         <v>0</v>
       </c>
       <c r="D71" s="23">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="E71" s="23">
         <v>0</v>
@@ -8808,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="23">
-        <v>386</v>
+        <v>733</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23">
@@ -8844,21 +8847,21 @@
         <v>0</v>
       </c>
       <c r="U71" s="23">
-        <v>386</v>
+        <v>733</v>
       </c>
     </row>
     <row r="72" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B72" s="23">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="C72" s="23">
         <v>0</v>
       </c>
       <c r="D72" s="23">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="E72" s="23">
         <v>0</v>
@@ -8867,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="23">
-        <v>312</v>
+        <v>606</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23">
@@ -8903,21 +8906,21 @@
         <v>0</v>
       </c>
       <c r="U72" s="23">
-        <v>312</v>
+        <v>606</v>
       </c>
     </row>
     <row r="73" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B73" s="23">
-        <v>289</v>
+        <v>25</v>
       </c>
       <c r="C73" s="23">
         <v>0</v>
       </c>
       <c r="D73" s="23">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="E73" s="23">
         <v>0</v>
@@ -8926,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="23">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23">
@@ -8962,21 +8965,21 @@
         <v>0</v>
       </c>
       <c r="U73" s="23">
-        <v>289</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B74" s="23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C74" s="23">
         <v>0</v>
       </c>
       <c r="D74" s="23">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="E74" s="23">
         <v>0</v>
@@ -8985,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="23">
-        <v>278</v>
+        <v>552</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23">
@@ -9021,15 +9024,15 @@
         <v>0</v>
       </c>
       <c r="U74" s="23">
-        <v>278</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B75" s="23">
-        <v>246</v>
+        <v>525</v>
       </c>
       <c r="C75" s="23">
         <v>0</v>
@@ -9044,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="23">
-        <v>246</v>
+        <v>525</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23">
@@ -9080,15 +9083,15 @@
         <v>0</v>
       </c>
       <c r="U75" s="23">
-        <v>246</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B76" s="23">
-        <v>235</v>
+        <v>460</v>
       </c>
       <c r="C76" s="23">
         <v>0</v>
@@ -9103,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>235</v>
+        <v>460</v>
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23">
@@ -9139,15 +9142,15 @@
         <v>0</v>
       </c>
       <c r="U76" s="23">
-        <v>235</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B77" s="23">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="C77" s="23">
         <v>0</v>
@@ -9162,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="23">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23">
@@ -9198,21 +9201,21 @@
         <v>0</v>
       </c>
       <c r="U77" s="23">
-        <v>230</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B78" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C78" s="23">
         <v>0</v>
       </c>
       <c r="D78" s="23">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="E78" s="23">
         <v>0</v>
@@ -9221,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="23">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23">
@@ -9235,7 +9238,7 @@
       </c>
       <c r="L78" s="23"/>
       <c r="M78" s="23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N78" s="23">
         <v>0</v>
@@ -9244,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="23"/>
       <c r="R78" s="23">
@@ -9257,15 +9260,15 @@
         <v>0</v>
       </c>
       <c r="U78" s="23">
-        <v>208</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B79" s="23">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="C79" s="23">
         <v>0</v>
@@ -9280,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="23">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23">
@@ -9294,7 +9297,7 @@
       </c>
       <c r="L79" s="23"/>
       <c r="M79" s="23">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="N79" s="23">
         <v>0</v>
@@ -9303,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="23">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="23"/>
       <c r="R79" s="23">
@@ -9316,21 +9319,21 @@
         <v>0</v>
       </c>
       <c r="U79" s="23">
-        <v>203</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B80" s="23">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="C80" s="23">
         <v>0</v>
       </c>
       <c r="D80" s="23">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E80" s="23">
         <v>0</v>
@@ -9339,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="23">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23">
@@ -9375,21 +9378,21 @@
         <v>0</v>
       </c>
       <c r="U80" s="23">
-        <v>184</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B81" s="23">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="C81" s="23">
         <v>0</v>
       </c>
       <c r="D81" s="23">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E81" s="23">
         <v>0</v>
@@ -9398,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="23">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23">
@@ -9434,21 +9437,21 @@
         <v>0</v>
       </c>
       <c r="U81" s="23">
-        <v>164</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B82" s="23">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="C82" s="23">
         <v>0</v>
       </c>
       <c r="D82" s="23">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E82" s="23">
         <v>0</v>
@@ -9457,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="23">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23">
@@ -9493,12 +9496,12 @@
         <v>0</v>
       </c>
       <c r="U82" s="23">
-        <v>163</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="23">
         <v>0</v>
@@ -9507,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="23">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="E83" s="23">
         <v>0</v>
@@ -9516,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="23">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23">
@@ -9552,21 +9555,21 @@
         <v>0</v>
       </c>
       <c r="U83" s="23">
-        <v>160</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B84" s="23">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C84" s="23">
         <v>0</v>
       </c>
       <c r="D84" s="23">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="E84" s="23">
         <v>0</v>
@@ -9575,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="23">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23">
@@ -9611,21 +9614,21 @@
         <v>0</v>
       </c>
       <c r="U84" s="23">
-        <v>137</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B85" s="23">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="C85" s="23">
         <v>0</v>
       </c>
       <c r="D85" s="23">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="E85" s="23">
         <v>0</v>
@@ -9634,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="23">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23">
@@ -9670,325 +9673,406 @@
         <v>0</v>
       </c>
       <c r="U85" s="23">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="23">
+        <v>43</v>
+      </c>
+      <c r="C86" s="23">
+        <v>0</v>
+      </c>
+      <c r="D86" s="23">
+        <v>0</v>
+      </c>
+      <c r="E86" s="23">
+        <v>0</v>
+      </c>
+      <c r="F86" s="23">
+        <v>0</v>
+      </c>
+      <c r="G86" s="23">
+        <v>43</v>
+      </c>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23">
+        <v>0</v>
+      </c>
+      <c r="J86" s="23">
+        <v>0</v>
+      </c>
+      <c r="K86" s="23">
+        <v>0</v>
+      </c>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23">
+        <v>143</v>
+      </c>
+      <c r="N86" s="23">
+        <v>0</v>
+      </c>
+      <c r="O86" s="23">
+        <v>0</v>
+      </c>
+      <c r="P86" s="23">
+        <v>143</v>
+      </c>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23">
+        <v>0</v>
+      </c>
+      <c r="S86" s="23">
+        <v>0</v>
+      </c>
+      <c r="T86" s="23">
+        <v>0</v>
+      </c>
+      <c r="U86" s="23">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="25">
-        <v>0</v>
-      </c>
-      <c r="C86" s="25">
-        <v>0</v>
-      </c>
-      <c r="D86" s="25">
-        <v>119</v>
-      </c>
-      <c r="E86" s="25">
-        <v>0</v>
-      </c>
-      <c r="F86" s="25">
-        <v>0</v>
-      </c>
-      <c r="G86" s="25">
-        <v>119</v>
-      </c>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25">
-        <v>0</v>
-      </c>
-      <c r="J86" s="25">
-        <v>0</v>
-      </c>
-      <c r="K86" s="25">
-        <v>0</v>
-      </c>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25">
-        <v>0</v>
-      </c>
-      <c r="N86" s="25">
-        <v>0</v>
-      </c>
-      <c r="O86" s="25">
-        <v>0</v>
-      </c>
-      <c r="P86" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25">
-        <v>0</v>
-      </c>
-      <c r="S86" s="25">
-        <v>0</v>
-      </c>
-      <c r="T86" s="25">
-        <v>0</v>
-      </c>
-      <c r="U86" s="25">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-      <c r="U87" s="19"/>
-    </row>
-    <row r="88" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
-      <c r="T88" s="32"/>
-      <c r="U88" s="32"/>
-    </row>
-    <row r="89" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="60" t="s">
+      <c r="B87" s="23">
+        <v>181</v>
+      </c>
+      <c r="C87" s="23">
+        <v>0</v>
+      </c>
+      <c r="D87" s="23">
+        <v>0</v>
+      </c>
+      <c r="E87" s="23">
+        <v>0</v>
+      </c>
+      <c r="F87" s="23">
+        <v>0</v>
+      </c>
+      <c r="G87" s="23">
+        <v>181</v>
+      </c>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23">
+        <v>0</v>
+      </c>
+      <c r="J87" s="23">
+        <v>0</v>
+      </c>
+      <c r="K87" s="23">
+        <v>0</v>
+      </c>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23">
+        <v>0</v>
+      </c>
+      <c r="N87" s="23">
+        <v>0</v>
+      </c>
+      <c r="O87" s="23">
+        <v>0</v>
+      </c>
+      <c r="P87" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="23">
+        <v>0</v>
+      </c>
+      <c r="S87" s="23">
+        <v>0</v>
+      </c>
+      <c r="T87" s="23">
+        <v>0</v>
+      </c>
+      <c r="U87" s="23">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="25">
+        <v>179</v>
+      </c>
+      <c r="C88" s="25">
+        <v>0</v>
+      </c>
+      <c r="D88" s="25">
+        <v>0</v>
+      </c>
+      <c r="E88" s="25">
+        <v>0</v>
+      </c>
+      <c r="F88" s="25">
+        <v>0</v>
+      </c>
+      <c r="G88" s="25">
+        <v>179</v>
+      </c>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25">
+        <v>0</v>
+      </c>
+      <c r="J88" s="25">
+        <v>0</v>
+      </c>
+      <c r="K88" s="25">
+        <v>0</v>
+      </c>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25">
+        <v>0</v>
+      </c>
+      <c r="N88" s="25">
+        <v>0</v>
+      </c>
+      <c r="O88" s="25">
+        <v>0</v>
+      </c>
+      <c r="P88" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25">
+        <v>0</v>
+      </c>
+      <c r="S88" s="25">
+        <v>0</v>
+      </c>
+      <c r="T88" s="25">
+        <v>0</v>
+      </c>
+      <c r="U88" s="25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+    </row>
+    <row r="90" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="32"/>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="32"/>
+      <c r="R90" s="32"/>
+      <c r="S90" s="32"/>
+      <c r="T90" s="32"/>
+      <c r="U90" s="32"/>
+    </row>
+    <row r="91" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="60"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-    </row>
-    <row r="90" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="58" t="s">
+      <c r="B91" s="60"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="34"/>
+      <c r="S91" s="34"/>
+    </row>
+    <row r="92" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="58"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="37"/>
-      <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="1:21" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="57"/>
-      <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="56" t="s">
+      <c r="B92" s="58"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="37"/>
+      <c r="R92" s="5"/>
+    </row>
+    <row r="93" spans="1:21" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="R93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B92" s="56"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="56"/>
-    </row>
-    <row r="93" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="56"/>
-    </row>
-    <row r="94" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="54"/>
+    </row>
+    <row r="95" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="54"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+    </row>
+    <row r="96" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B94" s="47"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-    </row>
-    <row r="95" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="42" t="s">
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+    </row>
+    <row r="97" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-    </row>
-    <row r="96" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="20"/>
-      <c r="T96" s="5"/>
-    </row>
-    <row r="97" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+    </row>
+    <row r="98" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="20"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="T97" s="5"/>
-    </row>
-    <row r="98" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" s="30"/>
-      <c r="G98" s="31"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="T98" s="5"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="30"/>
+      <c r="G99" s="30"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
+      <c r="T99" s="5"/>
+    </row>
+    <row r="100" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="30"/>
+      <c r="G100" s="31"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A103" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
-        <v>92</v>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A104" s="33" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="A89:K89"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -9999,14 +10083,51 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="A94:K94"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A90:K90"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A95:K95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A90" r:id="rId2"/>
-    <hyperlink ref="A99" r:id="rId3"/>
-    <hyperlink ref="A92" r:id="rId4"/>
-    <hyperlink ref="A95" r:id="rId5"/>
-    <hyperlink ref="A93" r:id="rId6"/>
+    <hyperlink ref="A92" r:id="rId2"/>
+    <hyperlink ref="A101" r:id="rId3"/>
+    <hyperlink ref="A94" r:id="rId4"/>
+    <hyperlink ref="A97" r:id="rId5"/>
+    <hyperlink ref="A95" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId7"/>

--- a/Data Sources/Vehicles/CurrentULEVRegister.xlsx
+++ b/Data Sources/Vehicles/CurrentULEVRegister.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0023 Region-Country versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\virago.internal.dtlr.gov.uk\data\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0023 Region-Country versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86EE2B1-F59A-44B4-A8B0-EA10372241E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEH0170 Scotland" sheetId="2" r:id="rId1"/>
@@ -240,7 +241,7 @@
     <definedName name="Pop99a">!#REF!</definedName>
     <definedName name="POWYS" localSheetId="0">!#REF!</definedName>
     <definedName name="POWYS">!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$104</definedName>
     <definedName name="Print_Area_MI" localSheetId="0">!#REF!</definedName>
     <definedName name="Print_Area_MI">!#REF!</definedName>
     <definedName name="RANGE_CELLREF" localSheetId="0">!#REF!</definedName>
@@ -309,12 +310,22 @@
     <definedName name="XATOP">#N/A</definedName>
     <definedName name="XATSGB">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
   <si>
     <t>Department for Transport statistics</t>
   </si>
@@ -782,12 +793,6 @@
     <t>2020 Q4</t>
   </si>
   <si>
-    <t>Last updated: May 2021</t>
-  </si>
-  <si>
-    <t>Top 20 generic models from December 2019 to December 2020</t>
-  </si>
-  <si>
     <t>PORSCHE TAYCAN</t>
   </si>
   <si>
@@ -798,18 +803,70 @@
   </si>
   <si>
     <t>VOLKSWAGEN ID3</t>
+  </si>
+  <si>
+    <t>Taxis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Other vehicles excl. Taxis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>5. In other published tables, taxis are included in the 'Other Vehicles' category but are identified separately here.</t>
+  </si>
+  <si>
+    <t>6. Changes to the Plug-in Car Grant came into effect on 18 March 2021, which impacted the eligibility of car models at the vehicle trim level. As a result, the plug-in car grant eligible models cannot be robustly estimated from the current data source from 2021 Q1 onwards. For more information about the changes, see:</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/news/plug-in-car-van-and-truck-grant-to-be-targeted-at-more-affordable-models-to-allow-more-people-to-make-the-switch</t>
+  </si>
+  <si>
+    <t>Last updated: August 2021</t>
+  </si>
+  <si>
+    <t>Top 20 generic models from April 2020 to March 2021</t>
+  </si>
+  <si>
+    <t>2021 Q1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot; &quot;General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="mmm&quot; &quot;yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -914,6 +971,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1005,7 +1069,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1132,23 +1196,26 @@
     <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1162,17 +1229,31 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal_11908a_new updated" xfId="2"/>
-    <cellStyle name="Normal_T3" xfId="3"/>
-    <cellStyle name="Normal_TSR4 data request B" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_11908a_new updated" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_T3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_TSR4 data request B" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5075,37 +5156,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="19" customWidth="1"/>
     <col min="2" max="3" width="17" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="19.7265625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="5.26953125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" style="19" customWidth="1"/>
-    <col min="17" max="17" width="5.26953125" style="19" customWidth="1"/>
-    <col min="18" max="21" width="13.453125" style="19" customWidth="1"/>
-    <col min="22" max="16384" width="12.54296875" style="19"/>
+    <col min="4" max="4" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="19" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="19" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="19" customWidth="1"/>
+    <col min="18" max="22" width="13.42578125" style="19" customWidth="1"/>
+    <col min="23" max="16384" width="12.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5116,7 +5197,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5137,7 +5218,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5145,7 +5226,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -5156,7 +5237,7 @@
       <c r="F4" s="8"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
@@ -5166,7 +5247,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -5188,92 +5269,97 @@
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="V6" s="12"/>
+    </row>
+    <row r="7" spans="1:22" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52" t="s">
+      <c r="L7" s="51"/>
+      <c r="M7" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52" t="s">
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="S7" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="52" t="s">
+      <c r="T7" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="U7" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
       <c r="B8" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-    </row>
-    <row r="9" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+    </row>
+    <row r="9" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>2010</v>
       </c>
@@ -5326,13 +5412,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
         <v>5</v>
       </c>
-      <c r="U9" s="15">
+      <c r="V9" s="15">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>2011</v>
       </c>
@@ -5385,13 +5474,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="15">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
         <v>8</v>
       </c>
-      <c r="U10" s="15">
+      <c r="V10" s="15">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>2012</v>
       </c>
@@ -5444,13 +5536,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
         <v>12</v>
       </c>
-      <c r="U11" s="15">
+      <c r="V11" s="15">
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>2013</v>
       </c>
@@ -5503,13 +5598,16 @@
         <v>1</v>
       </c>
       <c r="T12" s="15">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
         <v>5</v>
       </c>
-      <c r="U12" s="15">
+      <c r="V12" s="15">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>2014</v>
       </c>
@@ -5562,13 +5660,16 @@
         <v>7</v>
       </c>
       <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
         <v>4</v>
       </c>
-      <c r="U13" s="15">
+      <c r="V13" s="15">
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>2015</v>
       </c>
@@ -5621,13 +5722,16 @@
         <v>6</v>
       </c>
       <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
         <v>1</v>
       </c>
-      <c r="U14" s="15">
+      <c r="V14" s="15">
         <v>1399</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>2016</v>
       </c>
@@ -5680,13 +5784,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
         <v>3</v>
       </c>
-      <c r="U15" s="15">
+      <c r="V15" s="15">
         <v>1523</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>2017</v>
       </c>
@@ -5739,13 +5846,16 @@
         <v>6</v>
       </c>
       <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
         <v>4</v>
       </c>
-      <c r="U16" s="15">
+      <c r="V16" s="15">
         <v>2542</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36">
         <v>2018</v>
       </c>
@@ -5769,10 +5879,10 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="15">
         <v>29</v>
@@ -5798,13 +5908,16 @@
         <v>1</v>
       </c>
       <c r="T17" s="15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U17" s="15">
+        <v>2</v>
+      </c>
+      <c r="V17" s="15">
         <v>3529</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>2019</v>
       </c>
@@ -5828,10 +5941,10 @@
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J18" s="15">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K18" s="15">
         <v>61</v>
@@ -5857,13 +5970,16 @@
         <v>3</v>
       </c>
       <c r="T18" s="15">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U18" s="15">
+        <v>1</v>
+      </c>
+      <c r="V18" s="15">
         <v>5066</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36">
         <v>2020</v>
       </c>
@@ -5874,10 +5990,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="15">
-        <v>4656</v>
+        <v>4659</v>
       </c>
       <c r="E19" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="15">
         <v>0</v>
@@ -5887,10 +6003,10 @@
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J19" s="15">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K19" s="15">
         <v>99</v>
@@ -5916,13 +6032,16 @@
         <v>24</v>
       </c>
       <c r="T19" s="15">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="U19" s="15">
+        <v>8</v>
+      </c>
+      <c r="V19" s="15">
         <v>10990</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>66</v>
       </c>
@@ -5978,10 +6097,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>9</v>
       </c>
@@ -6034,13 +6156,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
         <v>2</v>
       </c>
-      <c r="U21" s="15">
+      <c r="V21" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>10</v>
       </c>
@@ -6093,13 +6218,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
         <v>2</v>
       </c>
-      <c r="U22" s="15">
+      <c r="V22" s="15">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>11</v>
       </c>
@@ -6152,13 +6280,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="15">
+        <v>0</v>
+      </c>
+      <c r="U23" s="15">
         <v>1</v>
       </c>
-      <c r="U23" s="15">
+      <c r="V23" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>12</v>
       </c>
@@ -6211,13 +6342,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
         <v>4</v>
       </c>
-      <c r="U24" s="15">
+      <c r="V24" s="15">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>13</v>
       </c>
@@ -6270,13 +6404,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="15">
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
         <v>3</v>
       </c>
-      <c r="U25" s="15">
+      <c r="V25" s="15">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>14</v>
       </c>
@@ -6332,10 +6469,13 @@
         <v>0</v>
       </c>
       <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>15</v>
       </c>
@@ -6388,13 +6528,16 @@
         <v>0</v>
       </c>
       <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
         <v>1</v>
       </c>
-      <c r="U27" s="15">
+      <c r="V27" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>16</v>
       </c>
@@ -6447,13 +6590,16 @@
         <v>0</v>
       </c>
       <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
         <v>2</v>
       </c>
-      <c r="U28" s="15">
+      <c r="V28" s="15">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>17</v>
       </c>
@@ -6506,13 +6652,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="15">
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
         <v>8</v>
       </c>
-      <c r="U29" s="15">
+      <c r="V29" s="15">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>18</v>
       </c>
@@ -6565,13 +6714,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
         <v>1</v>
       </c>
-      <c r="U30" s="15">
+      <c r="V30" s="15">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>19</v>
       </c>
@@ -6624,13 +6776,16 @@
         <v>0</v>
       </c>
       <c r="T31" s="15">
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
         <v>1</v>
       </c>
-      <c r="U31" s="15">
+      <c r="V31" s="15">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>20</v>
       </c>
@@ -6686,10 +6841,13 @@
         <v>0</v>
       </c>
       <c r="U32" s="15">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>21</v>
       </c>
@@ -6742,13 +6900,16 @@
         <v>0</v>
       </c>
       <c r="T33" s="15">
+        <v>0</v>
+      </c>
+      <c r="U33" s="15">
         <v>3</v>
       </c>
-      <c r="U33" s="15">
+      <c r="V33" s="15">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>22</v>
       </c>
@@ -6801,13 +6962,16 @@
         <v>1</v>
       </c>
       <c r="T34" s="15">
+        <v>0</v>
+      </c>
+      <c r="U34" s="15">
         <v>1</v>
       </c>
-      <c r="U34" s="15">
+      <c r="V34" s="15">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>23</v>
       </c>
@@ -6860,13 +7024,16 @@
         <v>0</v>
       </c>
       <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
         <v>1</v>
       </c>
-      <c r="U35" s="15">
+      <c r="V35" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>24</v>
       </c>
@@ -6919,13 +7086,16 @@
         <v>0</v>
       </c>
       <c r="T36" s="15">
+        <v>0</v>
+      </c>
+      <c r="U36" s="15">
         <v>1</v>
       </c>
-      <c r="U36" s="15">
+      <c r="V36" s="15">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>25</v>
       </c>
@@ -6978,13 +7148,16 @@
         <v>2</v>
       </c>
       <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
         <v>1</v>
       </c>
-      <c r="U37" s="15">
+      <c r="V37" s="15">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>26</v>
       </c>
@@ -7037,13 +7210,16 @@
         <v>1</v>
       </c>
       <c r="T38" s="15">
+        <v>0</v>
+      </c>
+      <c r="U38" s="15">
         <v>2</v>
       </c>
-      <c r="U38" s="15">
+      <c r="V38" s="15">
         <v>284</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>27</v>
       </c>
@@ -7099,10 +7275,13 @@
         <v>0</v>
       </c>
       <c r="U39" s="15">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15">
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>28</v>
       </c>
@@ -7158,10 +7337,13 @@
         <v>0</v>
       </c>
       <c r="U40" s="15">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15">
         <v>409</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>29</v>
       </c>
@@ -7217,10 +7399,13 @@
         <v>0</v>
       </c>
       <c r="U41" s="15">
+        <v>0</v>
+      </c>
+      <c r="V41" s="15">
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>30</v>
       </c>
@@ -7273,13 +7458,16 @@
         <v>0</v>
       </c>
       <c r="T42" s="15">
+        <v>0</v>
+      </c>
+      <c r="U42" s="15">
         <v>1</v>
       </c>
-      <c r="U42" s="15">
+      <c r="V42" s="15">
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>31</v>
       </c>
@@ -7335,10 +7523,13 @@
         <v>0</v>
       </c>
       <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
         <v>353</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>32</v>
       </c>
@@ -7391,13 +7582,16 @@
         <v>0</v>
       </c>
       <c r="T44" s="15">
+        <v>0</v>
+      </c>
+      <c r="U44" s="15">
         <v>2</v>
       </c>
-      <c r="U44" s="15">
+      <c r="V44" s="15">
         <v>485</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>33</v>
       </c>
@@ -7450,13 +7644,16 @@
         <v>0</v>
       </c>
       <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
         <v>1</v>
       </c>
-      <c r="U45" s="15">
+      <c r="V45" s="15">
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>34</v>
       </c>
@@ -7512,10 +7709,13 @@
         <v>0</v>
       </c>
       <c r="U46" s="15">
+        <v>0</v>
+      </c>
+      <c r="V46" s="15">
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>35</v>
       </c>
@@ -7571,10 +7771,13 @@
         <v>0</v>
       </c>
       <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>36</v>
       </c>
@@ -7630,10 +7833,13 @@
         <v>0</v>
       </c>
       <c r="U48" s="15">
+        <v>0</v>
+      </c>
+      <c r="V48" s="15">
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>37</v>
       </c>
@@ -7686,13 +7892,16 @@
         <v>0</v>
       </c>
       <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
         <v>1</v>
       </c>
-      <c r="U49" s="15">
+      <c r="V49" s="15">
         <v>549</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>38</v>
       </c>
@@ -7748,10 +7957,13 @@
         <v>0</v>
       </c>
       <c r="U50" s="15">
+        <v>0</v>
+      </c>
+      <c r="V50" s="15">
         <v>752</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>39</v>
       </c>
@@ -7804,13 +8016,16 @@
         <v>0</v>
       </c>
       <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
         <v>3</v>
       </c>
-      <c r="U51" s="15">
+      <c r="V51" s="15">
         <v>550</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>42</v>
       </c>
@@ -7863,13 +8078,16 @@
         <v>0</v>
       </c>
       <c r="T52" s="15">
+        <v>0</v>
+      </c>
+      <c r="U52" s="15">
         <v>1</v>
       </c>
-      <c r="U52" s="15">
+      <c r="V52" s="15">
         <v>845</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>45</v>
       </c>
@@ -7893,10 +8111,10 @@
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K53" s="15">
         <v>8</v>
@@ -7925,10 +8143,13 @@
         <v>3</v>
       </c>
       <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
         <v>927</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>47</v>
       </c>
@@ -7981,13 +8202,16 @@
         <v>0</v>
       </c>
       <c r="T54" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U54" s="15">
+        <v>1</v>
+      </c>
+      <c r="V54" s="15">
         <v>835</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>56</v>
       </c>
@@ -8011,10 +8235,10 @@
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K55" s="15">
         <v>9</v>
@@ -8043,10 +8267,13 @@
         <v>14</v>
       </c>
       <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
         <v>922</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
         <v>68</v>
       </c>
@@ -8070,10 +8297,10 @@
       </c>
       <c r="H56" s="44"/>
       <c r="I56" s="44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J56" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K56" s="44">
         <v>10</v>
@@ -8102,10 +8329,13 @@
         <v>24</v>
       </c>
       <c r="U56" s="44">
+        <v>0</v>
+      </c>
+      <c r="V56" s="44">
         <v>1172</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>70</v>
       </c>
@@ -8129,10 +8359,10 @@
       </c>
       <c r="H57" s="44"/>
       <c r="I57" s="44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J57" s="44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K57" s="44">
         <v>16</v>
@@ -8158,13 +8388,16 @@
         <v>0</v>
       </c>
       <c r="T57" s="44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U57" s="44">
+        <v>1</v>
+      </c>
+      <c r="V57" s="44">
         <v>971</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>71</v>
       </c>
@@ -8188,10 +8421,10 @@
       </c>
       <c r="H58" s="44"/>
       <c r="I58" s="44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J58" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" s="44">
         <v>15</v>
@@ -8220,10 +8453,13 @@
         <v>19</v>
       </c>
       <c r="U58" s="44">
+        <v>0</v>
+      </c>
+      <c r="V58" s="44">
         <v>1491</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>74</v>
       </c>
@@ -8247,10 +8483,10 @@
       </c>
       <c r="H59" s="44"/>
       <c r="I59" s="44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J59" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K59" s="44">
         <v>20</v>
@@ -8279,10 +8515,13 @@
         <v>34</v>
       </c>
       <c r="U59" s="44">
+        <v>0</v>
+      </c>
+      <c r="V59" s="44">
         <v>1432</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>82</v>
       </c>
@@ -8293,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="44">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E60" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="44">
         <v>0</v>
@@ -8306,10 +8545,10 @@
       </c>
       <c r="H60" s="44"/>
       <c r="I60" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J60" s="44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K60" s="44">
         <v>18</v>
@@ -8338,10 +8577,13 @@
         <v>16</v>
       </c>
       <c r="U60" s="44">
+        <v>0</v>
+      </c>
+      <c r="V60" s="44">
         <v>1687</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
         <v>87</v>
       </c>
@@ -8365,10 +8607,10 @@
       </c>
       <c r="H61" s="44"/>
       <c r="I61" s="44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J61" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="44">
         <v>13</v>
@@ -8394,24 +8636,27 @@
         <v>0</v>
       </c>
       <c r="T61" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U61" s="44">
+        <v>1</v>
+      </c>
+      <c r="V61" s="44">
         <v>816</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B62" s="44">
-        <v>2080</v>
+        <v>2094</v>
       </c>
       <c r="C62" s="44">
         <v>0</v>
       </c>
       <c r="D62" s="44">
-        <v>1807</v>
+        <v>1793</v>
       </c>
       <c r="E62" s="44">
         <v>0</v>
@@ -8424,10 +8669,10 @@
       </c>
       <c r="H62" s="44"/>
       <c r="I62" s="44">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J62" s="44">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K62" s="44">
         <v>32</v>
@@ -8453,100 +8698,145 @@
         <v>6</v>
       </c>
       <c r="T62" s="44">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U62" s="44">
+        <v>6</v>
+      </c>
+      <c r="V62" s="44">
         <v>4042</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="49" t="s">
+    <row r="63" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="45">
+      <c r="B63" s="44">
         <v>2277</v>
       </c>
-      <c r="C63" s="45">
-        <v>0</v>
-      </c>
-      <c r="D63" s="45">
-        <v>2056</v>
-      </c>
-      <c r="E63" s="45">
+      <c r="C63" s="44">
+        <v>0</v>
+      </c>
+      <c r="D63" s="44">
+        <v>2059</v>
+      </c>
+      <c r="E63" s="44">
+        <v>0</v>
+      </c>
+      <c r="F63" s="44">
+        <v>0</v>
+      </c>
+      <c r="G63" s="44">
+        <v>4336</v>
+      </c>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44">
+        <v>29</v>
+      </c>
+      <c r="J63" s="44">
+        <v>7</v>
+      </c>
+      <c r="K63" s="44">
+        <v>36</v>
+      </c>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44">
+        <v>50</v>
+      </c>
+      <c r="N63" s="44">
+        <v>0</v>
+      </c>
+      <c r="O63" s="44">
+        <v>0</v>
+      </c>
+      <c r="P63" s="44">
+        <v>50</v>
+      </c>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44">
+        <v>2</v>
+      </c>
+      <c r="S63" s="44">
+        <v>16</v>
+      </c>
+      <c r="T63" s="44">
+        <v>4</v>
+      </c>
+      <c r="U63" s="44">
+        <v>1</v>
+      </c>
+      <c r="V63" s="44">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="68" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="25">
+        <v>0</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="45">
+        <v>0</v>
+      </c>
+      <c r="F64" s="45">
+        <v>0</v>
+      </c>
+      <c r="G64" s="45">
+        <v>3827</v>
+      </c>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45">
+        <v>22</v>
+      </c>
+      <c r="J64" s="45">
+        <v>4</v>
+      </c>
+      <c r="K64" s="45">
+        <v>26</v>
+      </c>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45">
+        <v>117</v>
+      </c>
+      <c r="N64" s="45">
         <v>3</v>
       </c>
-      <c r="F63" s="45">
-        <v>0</v>
-      </c>
-      <c r="G63" s="45">
-        <v>4336</v>
-      </c>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45">
-        <v>28</v>
-      </c>
-      <c r="J63" s="45">
+      <c r="O64" s="45">
+        <v>0</v>
+      </c>
+      <c r="P64" s="45">
+        <v>120</v>
+      </c>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45">
+        <v>1</v>
+      </c>
+      <c r="S64" s="45">
+        <v>3</v>
+      </c>
+      <c r="T64" s="45">
+        <v>2</v>
+      </c>
+      <c r="U64" s="45">
         <v>8</v>
       </c>
-      <c r="K63" s="45">
-        <v>36</v>
-      </c>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45">
-        <v>50</v>
-      </c>
-      <c r="N63" s="45">
-        <v>0</v>
-      </c>
-      <c r="O63" s="45">
-        <v>0</v>
-      </c>
-      <c r="P63" s="45">
-        <v>50</v>
-      </c>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="45">
-        <v>2</v>
-      </c>
-      <c r="S63" s="45">
-        <v>16</v>
-      </c>
-      <c r="T63" s="45">
-        <v>5</v>
-      </c>
-      <c r="U63" s="45">
-        <v>4445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-    </row>
-    <row r="65" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V64" s="45">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
-      <c r="E65" s="39"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
@@ -8563,196 +8853,167 @@
       <c r="S65" s="23"/>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
-    </row>
-    <row r="66" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-    </row>
-    <row r="67" spans="1:21" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="55" t="s">
+      <c r="V65" s="23"/>
+    </row>
+    <row r="66" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+    </row>
+    <row r="67" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+    </row>
+    <row r="68" spans="1:22" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B68" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="52" t="s">
+      <c r="C68" s="55"/>
+      <c r="D68" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E68" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="52" t="s">
+      <c r="F68" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="52" t="s">
+      <c r="G68" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52" t="s">
+      <c r="H68" s="51"/>
+      <c r="I68" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="J67" s="52" t="s">
+      <c r="J68" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="K67" s="52" t="s">
+      <c r="K68" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52" t="s">
+      <c r="L68" s="51"/>
+      <c r="M68" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="N67" s="52" t="s">
+      <c r="N68" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="O67" s="52" t="s">
+      <c r="O68" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P67" s="52" t="s">
+      <c r="P68" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52" t="s">
+      <c r="Q68" s="51"/>
+      <c r="R68" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S67" s="52" t="s">
+      <c r="S68" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="T67" s="52" t="s">
+      <c r="T68" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="U67" s="52" t="s">
+      <c r="U68" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="V68" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="56"/>
-      <c r="B68" s="46" t="s">
+    <row r="69" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="54"/>
+      <c r="B69" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C69" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-      <c r="U68" s="53"/>
-    </row>
-    <row r="69" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="20" t="s">
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="52"/>
+      <c r="U69" s="52"/>
+      <c r="V69" s="52"/>
+    </row>
+    <row r="70" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B70" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="23">
+        <v>0</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="23">
+        <v>0</v>
+      </c>
+      <c r="F70" s="23">
+        <v>0</v>
+      </c>
+      <c r="G70" s="23">
         <v>1365</v>
-      </c>
-      <c r="C69" s="23">
-        <v>0</v>
-      </c>
-      <c r="D69" s="23">
-        <v>0</v>
-      </c>
-      <c r="E69" s="23">
-        <v>0</v>
-      </c>
-      <c r="F69" s="23">
-        <v>0</v>
-      </c>
-      <c r="G69" s="23">
-        <v>1365</v>
-      </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23">
-        <v>0</v>
-      </c>
-      <c r="J69" s="23">
-        <v>0</v>
-      </c>
-      <c r="K69" s="23">
-        <v>0</v>
-      </c>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23">
-        <v>0</v>
-      </c>
-      <c r="N69" s="23">
-        <v>0</v>
-      </c>
-      <c r="O69" s="23">
-        <v>0</v>
-      </c>
-      <c r="P69" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23">
-        <v>0</v>
-      </c>
-      <c r="S69" s="23">
-        <v>0</v>
-      </c>
-      <c r="T69" s="23">
-        <v>0</v>
-      </c>
-      <c r="U69" s="23">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="23">
-        <v>690</v>
-      </c>
-      <c r="C70" s="23">
-        <v>0</v>
-      </c>
-      <c r="D70" s="23">
-        <v>86</v>
-      </c>
-      <c r="E70" s="23">
-        <v>0</v>
-      </c>
-      <c r="F70" s="23">
-        <v>0</v>
-      </c>
-      <c r="G70" s="23">
-        <v>776</v>
       </c>
       <c r="H70" s="23"/>
       <c r="I70" s="23">
@@ -8788,30 +9049,33 @@
         <v>0</v>
       </c>
       <c r="U70" s="23">
+        <v>0</v>
+      </c>
+      <c r="V70" s="23">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="23">
+        <v>0</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="23">
+        <v>0</v>
+      </c>
+      <c r="F71" s="23">
+        <v>0</v>
+      </c>
+      <c r="G71" s="23">
         <v>776</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="23">
-        <v>0</v>
-      </c>
-      <c r="C71" s="23">
-        <v>0</v>
-      </c>
-      <c r="D71" s="23">
-        <v>733</v>
-      </c>
-      <c r="E71" s="23">
-        <v>0</v>
-      </c>
-      <c r="F71" s="23">
-        <v>0</v>
-      </c>
-      <c r="G71" s="23">
-        <v>733</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23">
@@ -8847,30 +9111,33 @@
         <v>0</v>
       </c>
       <c r="U71" s="23">
+        <v>0</v>
+      </c>
+      <c r="V71" s="23">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="23">
+        <v>0</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="23">
+        <v>0</v>
+      </c>
+      <c r="F72" s="23">
+        <v>0</v>
+      </c>
+      <c r="G72" s="23">
         <v>733</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="23">
-        <v>606</v>
-      </c>
-      <c r="C72" s="23">
-        <v>0</v>
-      </c>
-      <c r="D72" s="23">
-        <v>0</v>
-      </c>
-      <c r="E72" s="23">
-        <v>0</v>
-      </c>
-      <c r="F72" s="23">
-        <v>0</v>
-      </c>
-      <c r="G72" s="23">
-        <v>606</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23">
@@ -8906,30 +9173,33 @@
         <v>0</v>
       </c>
       <c r="U72" s="23">
+        <v>0</v>
+      </c>
+      <c r="V72" s="23">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="23">
+        <v>0</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="23">
+        <v>0</v>
+      </c>
+      <c r="F73" s="23">
+        <v>0</v>
+      </c>
+      <c r="G73" s="23">
         <v>606</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="23">
-        <v>25</v>
-      </c>
-      <c r="C73" s="23">
-        <v>0</v>
-      </c>
-      <c r="D73" s="23">
-        <v>553</v>
-      </c>
-      <c r="E73" s="23">
-        <v>0</v>
-      </c>
-      <c r="F73" s="23">
-        <v>0</v>
-      </c>
-      <c r="G73" s="23">
-        <v>578</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23">
@@ -8965,30 +9235,33 @@
         <v>0</v>
       </c>
       <c r="U73" s="23">
+        <v>0</v>
+      </c>
+      <c r="V73" s="23">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="23">
+        <v>0</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="23">
+        <v>0</v>
+      </c>
+      <c r="F74" s="23">
+        <v>0</v>
+      </c>
+      <c r="G74" s="23">
         <v>578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="23">
-        <v>0</v>
-      </c>
-      <c r="C74" s="23">
-        <v>0</v>
-      </c>
-      <c r="D74" s="23">
-        <v>552</v>
-      </c>
-      <c r="E74" s="23">
-        <v>0</v>
-      </c>
-      <c r="F74" s="23">
-        <v>0</v>
-      </c>
-      <c r="G74" s="23">
-        <v>552</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23">
@@ -9024,30 +9297,33 @@
         <v>0</v>
       </c>
       <c r="U74" s="23">
+        <v>0</v>
+      </c>
+      <c r="V74" s="23">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="23">
+        <v>0</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="23">
+        <v>0</v>
+      </c>
+      <c r="F75" s="23">
+        <v>0</v>
+      </c>
+      <c r="G75" s="23">
         <v>552</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="23">
-        <v>525</v>
-      </c>
-      <c r="C75" s="23">
-        <v>0</v>
-      </c>
-      <c r="D75" s="23">
-        <v>0</v>
-      </c>
-      <c r="E75" s="23">
-        <v>0</v>
-      </c>
-      <c r="F75" s="23">
-        <v>0</v>
-      </c>
-      <c r="G75" s="23">
-        <v>525</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23">
@@ -9083,30 +9359,33 @@
         <v>0</v>
       </c>
       <c r="U75" s="23">
+        <v>0</v>
+      </c>
+      <c r="V75" s="23">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="23">
+        <v>0</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="23">
+        <v>0</v>
+      </c>
+      <c r="F76" s="23">
+        <v>0</v>
+      </c>
+      <c r="G76" s="23">
         <v>525</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="23">
-        <v>460</v>
-      </c>
-      <c r="C76" s="23">
-        <v>0</v>
-      </c>
-      <c r="D76" s="23">
-        <v>0</v>
-      </c>
-      <c r="E76" s="23">
-        <v>0</v>
-      </c>
-      <c r="F76" s="23">
-        <v>0</v>
-      </c>
-      <c r="G76" s="23">
-        <v>460</v>
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23">
@@ -9142,30 +9421,33 @@
         <v>0</v>
       </c>
       <c r="U76" s="23">
+        <v>0</v>
+      </c>
+      <c r="V76" s="23">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="23">
+        <v>0</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="23">
+        <v>0</v>
+      </c>
+      <c r="F77" s="23">
+        <v>0</v>
+      </c>
+      <c r="G77" s="23">
         <v>460</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="23">
-        <v>309</v>
-      </c>
-      <c r="C77" s="23">
-        <v>0</v>
-      </c>
-      <c r="D77" s="23">
-        <v>0</v>
-      </c>
-      <c r="E77" s="23">
-        <v>0</v>
-      </c>
-      <c r="F77" s="23">
-        <v>0</v>
-      </c>
-      <c r="G77" s="23">
-        <v>309</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23">
@@ -9201,30 +9483,33 @@
         <v>0</v>
       </c>
       <c r="U77" s="23">
+        <v>0</v>
+      </c>
+      <c r="V77" s="23">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="23">
+        <v>0</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="23">
+        <v>0</v>
+      </c>
+      <c r="F78" s="23">
+        <v>0</v>
+      </c>
+      <c r="G78" s="23">
         <v>309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="23">
-        <v>3</v>
-      </c>
-      <c r="C78" s="23">
-        <v>0</v>
-      </c>
-      <c r="D78" s="23">
-        <v>305</v>
-      </c>
-      <c r="E78" s="23">
-        <v>0</v>
-      </c>
-      <c r="F78" s="23">
-        <v>0</v>
-      </c>
-      <c r="G78" s="23">
-        <v>308</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23">
@@ -9260,30 +9545,33 @@
         <v>0</v>
       </c>
       <c r="U78" s="23">
+        <v>0</v>
+      </c>
+      <c r="V78" s="23">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="23">
+        <v>0</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="23">
+        <v>0</v>
+      </c>
+      <c r="F79" s="23">
+        <v>0</v>
+      </c>
+      <c r="G79" s="23">
         <v>308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="23">
-        <v>297</v>
-      </c>
-      <c r="C79" s="23">
-        <v>0</v>
-      </c>
-      <c r="D79" s="23">
-        <v>0</v>
-      </c>
-      <c r="E79" s="23">
-        <v>0</v>
-      </c>
-      <c r="F79" s="23">
-        <v>0</v>
-      </c>
-      <c r="G79" s="23">
-        <v>297</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23">
@@ -9319,30 +9607,33 @@
         <v>0</v>
       </c>
       <c r="U79" s="23">
+        <v>0</v>
+      </c>
+      <c r="V79" s="23">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="23">
+        <v>0</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="23">
+        <v>0</v>
+      </c>
+      <c r="F80" s="23">
+        <v>0</v>
+      </c>
+      <c r="G80" s="23">
         <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="23">
-        <v>250</v>
-      </c>
-      <c r="C80" s="23">
-        <v>0</v>
-      </c>
-      <c r="D80" s="23">
-        <v>0</v>
-      </c>
-      <c r="E80" s="23">
-        <v>0</v>
-      </c>
-      <c r="F80" s="23">
-        <v>0</v>
-      </c>
-      <c r="G80" s="23">
-        <v>250</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23">
@@ -9378,21 +9669,24 @@
         <v>0</v>
       </c>
       <c r="U80" s="23">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="V80" s="23">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="23">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="C81" s="23">
         <v>0</v>
       </c>
-      <c r="D81" s="23">
-        <v>250</v>
+      <c r="D81" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E81" s="23">
         <v>0</v>
@@ -9437,21 +9731,24 @@
         <v>0</v>
       </c>
       <c r="U81" s="23">
+        <v>0</v>
+      </c>
+      <c r="V81" s="23">
         <v>250</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="23">
-        <v>231</v>
+        <v>93</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="C82" s="23">
         <v>0</v>
       </c>
-      <c r="D82" s="23">
-        <v>0</v>
+      <c r="D82" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E82" s="23">
         <v>0</v>
@@ -9460,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="23">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23">
@@ -9496,30 +9793,33 @@
         <v>0</v>
       </c>
       <c r="U82" s="23">
+        <v>0</v>
+      </c>
+      <c r="V82" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="23">
+        <v>0</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="23">
+        <v>0</v>
+      </c>
+      <c r="F83" s="23">
+        <v>0</v>
+      </c>
+      <c r="G83" s="23">
         <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83" s="23">
-        <v>0</v>
-      </c>
-      <c r="C83" s="23">
-        <v>0</v>
-      </c>
-      <c r="D83" s="23">
-        <v>208</v>
-      </c>
-      <c r="E83" s="23">
-        <v>0</v>
-      </c>
-      <c r="F83" s="23">
-        <v>0</v>
-      </c>
-      <c r="G83" s="23">
-        <v>208</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23">
@@ -9555,30 +9855,33 @@
         <v>0</v>
       </c>
       <c r="U83" s="23">
+        <v>0</v>
+      </c>
+      <c r="V83" s="23">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="23">
+        <v>0</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="23">
+        <v>0</v>
+      </c>
+      <c r="F84" s="23">
+        <v>0</v>
+      </c>
+      <c r="G84" s="23">
         <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="23">
-        <v>28</v>
-      </c>
-      <c r="C84" s="23">
-        <v>0</v>
-      </c>
-      <c r="D84" s="23">
-        <v>168</v>
-      </c>
-      <c r="E84" s="23">
-        <v>0</v>
-      </c>
-      <c r="F84" s="23">
-        <v>0</v>
-      </c>
-      <c r="G84" s="23">
-        <v>196</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23">
@@ -9614,30 +9917,33 @@
         <v>0</v>
       </c>
       <c r="U84" s="23">
+        <v>0</v>
+      </c>
+      <c r="V84" s="23">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="23">
+        <v>0</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="23">
+        <v>0</v>
+      </c>
+      <c r="F85" s="23">
+        <v>0</v>
+      </c>
+      <c r="G85" s="23">
         <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" s="23">
-        <v>189</v>
-      </c>
-      <c r="C85" s="23">
-        <v>0</v>
-      </c>
-      <c r="D85" s="23">
-        <v>0</v>
-      </c>
-      <c r="E85" s="23">
-        <v>0</v>
-      </c>
-      <c r="F85" s="23">
-        <v>0</v>
-      </c>
-      <c r="G85" s="23">
-        <v>189</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23">
@@ -9673,30 +9979,33 @@
         <v>0</v>
       </c>
       <c r="U85" s="23">
+        <v>0</v>
+      </c>
+      <c r="V85" s="23">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="23">
+        <v>0</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="23">
+        <v>0</v>
+      </c>
+      <c r="F86" s="23">
+        <v>0</v>
+      </c>
+      <c r="G86" s="23">
         <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" s="23">
-        <v>43</v>
-      </c>
-      <c r="C86" s="23">
-        <v>0</v>
-      </c>
-      <c r="D86" s="23">
-        <v>0</v>
-      </c>
-      <c r="E86" s="23">
-        <v>0</v>
-      </c>
-      <c r="F86" s="23">
-        <v>0</v>
-      </c>
-      <c r="G86" s="23">
-        <v>43</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23">
@@ -9710,7 +10019,7 @@
       </c>
       <c r="L86" s="23"/>
       <c r="M86" s="23">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="N86" s="23">
         <v>0</v>
@@ -9719,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="23">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="23"/>
       <c r="R86" s="23">
@@ -9732,21 +10041,24 @@
         <v>0</v>
       </c>
       <c r="U86" s="23">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="23">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="23">
-        <v>181</v>
+        <v>67</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="C87" s="23">
         <v>0</v>
       </c>
-      <c r="D87" s="23">
-        <v>0</v>
+      <c r="D87" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E87" s="23">
         <v>0</v>
@@ -9755,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="23">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23">
@@ -9769,7 +10081,7 @@
       </c>
       <c r="L87" s="23"/>
       <c r="M87" s="23">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="N87" s="23">
         <v>0</v>
@@ -9778,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="23">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="Q87" s="23"/>
       <c r="R87" s="23">
@@ -9791,119 +10103,163 @@
         <v>0</v>
       </c>
       <c r="U87" s="23">
+        <v>0</v>
+      </c>
+      <c r="V87" s="23">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="23">
+        <v>0</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="23">
+        <v>0</v>
+      </c>
+      <c r="F88" s="23">
+        <v>0</v>
+      </c>
+      <c r="G88" s="23">
         <v>181</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" s="25">
+      <c r="H88" s="23"/>
+      <c r="I88" s="23">
+        <v>0</v>
+      </c>
+      <c r="J88" s="23">
+        <v>0</v>
+      </c>
+      <c r="K88" s="23">
+        <v>0</v>
+      </c>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23">
+        <v>0</v>
+      </c>
+      <c r="N88" s="23">
+        <v>0</v>
+      </c>
+      <c r="O88" s="23">
+        <v>0</v>
+      </c>
+      <c r="P88" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="23">
+        <v>0</v>
+      </c>
+      <c r="S88" s="23">
+        <v>0</v>
+      </c>
+      <c r="T88" s="23">
+        <v>0</v>
+      </c>
+      <c r="U88" s="23">
+        <v>0</v>
+      </c>
+      <c r="V88" s="23">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="25">
+        <v>0</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="25">
+        <v>0</v>
+      </c>
+      <c r="F89" s="25">
+        <v>0</v>
+      </c>
+      <c r="G89" s="25">
         <v>179</v>
       </c>
-      <c r="C88" s="25">
-        <v>0</v>
-      </c>
-      <c r="D88" s="25">
-        <v>0</v>
-      </c>
-      <c r="E88" s="25">
-        <v>0</v>
-      </c>
-      <c r="F88" s="25">
-        <v>0</v>
-      </c>
-      <c r="G88" s="25">
+      <c r="H89" s="25"/>
+      <c r="I89" s="25">
+        <v>0</v>
+      </c>
+      <c r="J89" s="25">
+        <v>0</v>
+      </c>
+      <c r="K89" s="25">
+        <v>0</v>
+      </c>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25">
+        <v>0</v>
+      </c>
+      <c r="N89" s="25">
+        <v>0</v>
+      </c>
+      <c r="O89" s="25">
+        <v>0</v>
+      </c>
+      <c r="P89" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25">
+        <v>0</v>
+      </c>
+      <c r="S89" s="25">
+        <v>0</v>
+      </c>
+      <c r="T89" s="25">
+        <v>0</v>
+      </c>
+      <c r="U89" s="25">
+        <v>0</v>
+      </c>
+      <c r="V89" s="25">
         <v>179</v>
       </c>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25">
-        <v>0</v>
-      </c>
-      <c r="J88" s="25">
-        <v>0</v>
-      </c>
-      <c r="K88" s="25">
-        <v>0</v>
-      </c>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25">
-        <v>0</v>
-      </c>
-      <c r="N88" s="25">
-        <v>0</v>
-      </c>
-      <c r="O88" s="25">
-        <v>0</v>
-      </c>
-      <c r="P88" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="25">
-        <v>0</v>
-      </c>
-      <c r="S88" s="25">
-        <v>0</v>
-      </c>
-      <c r="T88" s="25">
-        <v>0</v>
-      </c>
-      <c r="U88" s="25">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-    </row>
-    <row r="90" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="59" t="s">
+    </row>
+    <row r="90" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
+      <c r="V90" s="19"/>
+    </row>
+    <row r="91" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="60" t="s">
         <v>73</v>
-      </c>
-      <c r="B90" s="59"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="32"/>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="32"/>
-      <c r="R90" s="32"/>
-      <c r="S90" s="32"/>
-      <c r="T90" s="32"/>
-      <c r="U90" s="32"/>
-    </row>
-    <row r="91" spans="1:21" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="60" t="s">
-        <v>48</v>
       </c>
       <c r="B91" s="60"/>
       <c r="C91" s="60"/>
@@ -9915,164 +10271,280 @@
       <c r="I91" s="60"/>
       <c r="J91" s="60"/>
       <c r="K91" s="60"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-    </row>
-    <row r="92" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="58" t="s">
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
+      <c r="P91" s="32"/>
+      <c r="Q91" s="32"/>
+      <c r="R91" s="32"/>
+      <c r="S91" s="32"/>
+      <c r="T91" s="32"/>
+      <c r="U91" s="32"/>
+      <c r="V91" s="32"/>
+    </row>
+    <row r="92" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="61"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
+    </row>
+    <row r="93" spans="1:22" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="58"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="37"/>
-      <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="1:21" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="57" t="s">
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="37"/>
+      <c r="R93" s="5"/>
+    </row>
+    <row r="94" spans="1:22" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="57"/>
-      <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="54" t="s">
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="R94" s="5"/>
+    </row>
+    <row r="95" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B94" s="54"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="54"/>
-    </row>
-    <row r="95" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="54" t="s">
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="57"/>
+    </row>
+    <row r="96" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="54"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-    </row>
-    <row r="96" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+    </row>
+    <row r="97" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-    </row>
-    <row r="97" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="42" t="s">
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+    </row>
+    <row r="98" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-    </row>
-    <row r="98" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="20"/>
-      <c r="T98" s="5"/>
-    </row>
-    <row r="99" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+    </row>
+    <row r="99" spans="1:21" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="62"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="62"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+    </row>
+    <row r="100" spans="1:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="63"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="63"/>
+      <c r="I100" s="63"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="63"/>
+    </row>
+    <row r="101" spans="1:21" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="64"/>
+      <c r="R101" s="66"/>
+    </row>
+    <row r="102" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="T99" s="5"/>
-    </row>
-    <row r="100" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="27" t="s">
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D100" s="30"/>
-      <c r="G100" s="31"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="T100" s="5"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A101" s="51" t="s">
+      <c r="D104" s="30"/>
+      <c r="G104" s="31"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B101" s="51"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A107" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="33" t="s">
-        <v>95</v>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A108" s="33" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="51">
+    <mergeCell ref="T68:T69"/>
+    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A94:K94"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="R68:R69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="U68:U69"/>
+    <mergeCell ref="V68:V69"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -10083,51 +10555,14 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="A94:K94"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A90:K90"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A95:K95"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A92" r:id="rId2"/>
-    <hyperlink ref="A101" r:id="rId3"/>
-    <hyperlink ref="A94" r:id="rId4"/>
-    <hyperlink ref="A97" r:id="rId5"/>
-    <hyperlink ref="A95" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A93" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A105" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A95" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A98" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A96" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId7"/>

--- a/Data Sources/Vehicles/CurrentULEVRegister.xlsx
+++ b/Data Sources/Vehicles/CurrentULEVRegister.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\virago.internal.dtlr.gov.uk\data\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0023 Region-Country versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86EE2B1-F59A-44B4-A8B0-EA10372241E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C86FD-0D8A-4820-8D41-887F98853CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEH0170 Scotland" sheetId="2" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <definedName name="Pop99a">!#REF!</definedName>
     <definedName name="POWYS" localSheetId="0">!#REF!</definedName>
     <definedName name="POWYS">!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'VEH0170 Scotland'!$A$1:$Q$105</definedName>
     <definedName name="Print_Area_MI" localSheetId="0">!#REF!</definedName>
     <definedName name="Print_Area_MI">!#REF!</definedName>
     <definedName name="RANGE_CELLREF" localSheetId="0">!#REF!</definedName>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
   <si>
     <t>Department for Transport statistics</t>
   </si>
@@ -670,13 +670,7 @@
     <t>2010 Q1</t>
   </si>
   <si>
-    <t>NISSAN E-NV200</t>
-  </si>
-  <si>
     <t>2019 Q1</t>
-  </si>
-  <si>
-    <t>JAGUAR I-PACE</t>
   </si>
   <si>
     <t>2019 Q2</t>
@@ -766,9 +760,6 @@
     <t>MG ZS</t>
   </si>
   <si>
-    <t>PEUGEOT 208</t>
-  </si>
-  <si>
     <t>2020 Q2</t>
   </si>
   <si>
@@ -782,9 +773,6 @@
   </si>
   <si>
     <t>VAUXHALL CORSA</t>
-  </si>
-  <si>
-    <t>MERCEDES EQC CLASS</t>
   </si>
   <si>
     <t>VOLVO XC40</t>
@@ -833,12 +821,6 @@
     <t>https://www.gov.uk/government/news/plug-in-car-van-and-truck-grant-to-be-targeted-at-more-affordable-models-to-allow-more-people-to-make-the-switch</t>
   </si>
   <si>
-    <t>Last updated: August 2021</t>
-  </si>
-  <si>
-    <t>Top 20 generic models from April 2020 to March 2021</t>
-  </si>
-  <si>
     <t>2021 Q1</t>
   </si>
   <si>
@@ -855,6 +837,24 @@
       </rPr>
       <t>6</t>
     </r>
+  </si>
+  <si>
+    <t>2021 Q2</t>
+  </si>
+  <si>
+    <t>Top 20 generic models from July 2020 to June 2021</t>
+  </si>
+  <si>
+    <t>FORD KUGA</t>
+  </si>
+  <si>
+    <t>MERCEDES EQC CLASS</t>
+  </si>
+  <si>
+    <t>NISSAN E-NV200</t>
+  </si>
+  <si>
+    <t>PEUGEOT 208</t>
   </si>
 </sst>
 </file>
@@ -1196,6 +1196,17 @@
     <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1210,6 +1221,12 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1229,23 +1246,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5157,11 +5157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5272,92 +5272,92 @@
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="J7" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51" t="s">
+      <c r="K7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="L7" s="56"/>
+      <c r="M7" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="U7" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="V7" s="51" t="s">
+      <c r="T7" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="U7" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="V7" s="56" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
@@ -8275,7 +8275,7 @@
     </row>
     <row r="56" spans="1:22" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="44">
         <v>526</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="57" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B57" s="44">
         <v>431</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="58" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" s="44">
         <v>870</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="59" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" s="40">
         <v>792</v>
@@ -8523,7 +8523,7 @@
     </row>
     <row r="60" spans="1:22" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B60" s="44">
         <v>1022</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="61" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B61" s="44">
         <v>518</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="62" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B62" s="44">
         <v>2094</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="63" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B63" s="44">
         <v>2277</v>
@@ -8769,98 +8769,136 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="68" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="25">
-        <v>0</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="45">
-        <v>0</v>
-      </c>
-      <c r="F64" s="45">
-        <v>0</v>
-      </c>
-      <c r="G64" s="45">
+    <row r="64" spans="1:22" s="55" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="44">
+        <v>0</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="44">
+        <v>0</v>
+      </c>
+      <c r="F64" s="44">
+        <v>0</v>
+      </c>
+      <c r="G64" s="44">
         <v>3827</v>
       </c>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45">
+      <c r="H64" s="44"/>
+      <c r="I64" s="44">
         <v>22</v>
       </c>
-      <c r="J64" s="45">
+      <c r="J64" s="44">
         <v>4</v>
       </c>
-      <c r="K64" s="45">
+      <c r="K64" s="44">
         <v>26</v>
       </c>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45">
+      <c r="L64" s="44"/>
+      <c r="M64" s="44">
         <v>117</v>
       </c>
-      <c r="N64" s="45">
+      <c r="N64" s="44">
         <v>3</v>
       </c>
-      <c r="O64" s="45">
-        <v>0</v>
-      </c>
-      <c r="P64" s="45">
+      <c r="O64" s="44">
+        <v>0</v>
+      </c>
+      <c r="P64" s="44">
         <v>120</v>
       </c>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="45">
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44">
         <v>1</v>
       </c>
-      <c r="S64" s="45">
+      <c r="S64" s="44">
         <v>3</v>
       </c>
-      <c r="T64" s="45">
+      <c r="T64" s="44">
         <v>2</v>
       </c>
-      <c r="U64" s="45">
+      <c r="U64" s="44">
         <v>8</v>
       </c>
-      <c r="V64" s="45">
+      <c r="V64" s="44">
         <v>3987</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23"/>
+    <row r="65" spans="1:22" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="25">
+        <v>0</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="45">
+        <v>1</v>
+      </c>
+      <c r="F65" s="45">
+        <v>0</v>
+      </c>
+      <c r="G65" s="45">
+        <v>3684</v>
+      </c>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45">
+        <v>44</v>
+      </c>
+      <c r="J65" s="45">
+        <v>9</v>
+      </c>
+      <c r="K65" s="45">
+        <v>53</v>
+      </c>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45">
+        <v>127</v>
+      </c>
+      <c r="N65" s="45">
+        <v>5</v>
+      </c>
+      <c r="O65" s="45">
+        <v>0</v>
+      </c>
+      <c r="P65" s="45">
+        <v>132</v>
+      </c>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45">
+        <v>4</v>
+      </c>
+      <c r="S65" s="45">
+        <v>10</v>
+      </c>
+      <c r="T65" s="45">
+        <v>1</v>
+      </c>
+      <c r="U65" s="45">
+        <v>4</v>
+      </c>
+      <c r="V65" s="45">
+        <v>3888</v>
+      </c>
     </row>
     <row r="66" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
-      <c r="E66" s="39"/>
+      <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
@@ -8879,194 +8917,156 @@
       <c r="U66" s="23"/>
       <c r="V66" s="23"/>
     </row>
-    <row r="67" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
-    </row>
-    <row r="68" spans="1:22" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="53" t="s">
+    <row r="67" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23"/>
+    </row>
+    <row r="68" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+    </row>
+    <row r="69" spans="1:22" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B69" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="51" t="s">
+      <c r="C69" s="60"/>
+      <c r="D69" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="51" t="s">
+      <c r="E69" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F68" s="51" t="s">
+      <c r="F69" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="51" t="s">
+      <c r="J69" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51" t="s">
+      <c r="K69" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="J68" s="51" t="s">
+      <c r="L69" s="56"/>
+      <c r="M69" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="N69" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="O69" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="P69" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="S69" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="K68" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="L68" s="51"/>
-      <c r="M68" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N68" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="O68" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="P68" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q68" s="51"/>
-      <c r="R68" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="S68" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="T68" s="51" t="s">
+      <c r="T69" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="U68" s="51" t="s">
+      <c r="U69" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="V68" s="51" t="s">
+      <c r="V69" s="56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="54"/>
-      <c r="B69" s="46" t="s">
+    <row r="70" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="59"/>
+      <c r="B70" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C70" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
-    </row>
-    <row r="70" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="23">
-        <v>0</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="23">
-        <v>0</v>
-      </c>
-      <c r="F70" s="23">
-        <v>0</v>
-      </c>
-      <c r="G70" s="23">
-        <v>1365</v>
-      </c>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23">
-        <v>0</v>
-      </c>
-      <c r="J70" s="23">
-        <v>0</v>
-      </c>
-      <c r="K70" s="23">
-        <v>0</v>
-      </c>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23">
-        <v>0</v>
-      </c>
-      <c r="N70" s="23">
-        <v>0</v>
-      </c>
-      <c r="O70" s="23">
-        <v>0</v>
-      </c>
-      <c r="P70" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23">
-        <v>0</v>
-      </c>
-      <c r="S70" s="23">
-        <v>0</v>
-      </c>
-      <c r="T70" s="23">
-        <v>0</v>
-      </c>
-      <c r="U70" s="23">
-        <v>0</v>
-      </c>
-      <c r="V70" s="23">
-        <v>1365</v>
-      </c>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="57"/>
+      <c r="S70" s="57"/>
+      <c r="T70" s="57"/>
+      <c r="U70" s="57"/>
+      <c r="V70" s="57"/>
     </row>
     <row r="71" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C71" s="23">
         <v>0</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E71" s="23">
         <v>0</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="23">
-        <v>776</v>
+        <v>1448</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23">
@@ -9114,21 +9114,21 @@
         <v>0</v>
       </c>
       <c r="V71" s="23">
-        <v>776</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="72" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C72" s="23">
         <v>0</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E72" s="23">
         <v>0</v>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="23">
-        <v>733</v>
+        <v>1095</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23">
@@ -9176,21 +9176,21 @@
         <v>0</v>
       </c>
       <c r="V72" s="23">
-        <v>733</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C73" s="23">
         <v>0</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E73" s="23">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="23">
-        <v>606</v>
+        <v>1036</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23">
@@ -9238,21 +9238,21 @@
         <v>0</v>
       </c>
       <c r="V73" s="23">
-        <v>606</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="74" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C74" s="23">
         <v>0</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E74" s="23">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="23">
-        <v>578</v>
+        <v>861</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23">
@@ -9300,21 +9300,21 @@
         <v>0</v>
       </c>
       <c r="V74" s="23">
-        <v>578</v>
+        <v>861</v>
       </c>
     </row>
     <row r="75" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C75" s="23">
         <v>0</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E75" s="23">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="23">
-        <v>552</v>
+        <v>803</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23">
@@ -9362,21 +9362,21 @@
         <v>0</v>
       </c>
       <c r="V75" s="23">
-        <v>552</v>
+        <v>803</v>
       </c>
     </row>
     <row r="76" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C76" s="23">
         <v>0</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E76" s="23">
         <v>0</v>
@@ -9385,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>525</v>
+        <v>791</v>
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23">
@@ -9424,21 +9424,21 @@
         <v>0</v>
       </c>
       <c r="V76" s="23">
-        <v>525</v>
+        <v>791</v>
       </c>
     </row>
     <row r="77" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C77" s="23">
         <v>0</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E77" s="23">
         <v>0</v>
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="23">
-        <v>460</v>
+        <v>671</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23">
@@ -9486,21 +9486,21 @@
         <v>0</v>
       </c>
       <c r="V77" s="23">
-        <v>460</v>
+        <v>671</v>
       </c>
     </row>
     <row r="78" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C78" s="23">
         <v>0</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E78" s="23">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="23">
-        <v>309</v>
+        <v>513</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23">
@@ -9548,21 +9548,21 @@
         <v>0</v>
       </c>
       <c r="V78" s="23">
-        <v>309</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C79" s="23">
         <v>0</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E79" s="23">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="23">
-        <v>308</v>
+        <v>493</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23">
@@ -9610,21 +9610,21 @@
         <v>0</v>
       </c>
       <c r="V79" s="23">
-        <v>308</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C80" s="23">
         <v>0</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E80" s="23">
         <v>0</v>
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="23">
-        <v>297</v>
+        <v>470</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23">
@@ -9672,21 +9672,21 @@
         <v>0</v>
       </c>
       <c r="V80" s="23">
-        <v>297</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C81" s="23">
         <v>0</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E81" s="23">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="23">
-        <v>250</v>
+        <v>444</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23">
@@ -9734,21 +9734,21 @@
         <v>0</v>
       </c>
       <c r="V81" s="23">
-        <v>250</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C82" s="23">
         <v>0</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E82" s="23">
         <v>0</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="23">
-        <v>250</v>
+        <v>414</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23">
@@ -9796,21 +9796,21 @@
         <v>0</v>
       </c>
       <c r="V82" s="23">
-        <v>250</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C83" s="23">
         <v>0</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E83" s="23">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="23">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23">
@@ -9858,21 +9858,21 @@
         <v>0</v>
       </c>
       <c r="V83" s="23">
-        <v>231</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C84" s="23">
         <v>0</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E84" s="23">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="23">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23">
@@ -9920,21 +9920,21 @@
         <v>0</v>
       </c>
       <c r="V84" s="23">
-        <v>208</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C85" s="23">
         <v>0</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E85" s="23">
         <v>0</v>
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="23">
-        <v>196</v>
+        <v>333</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="L85" s="23"/>
       <c r="M85" s="23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N85" s="23">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q85" s="23"/>
       <c r="R85" s="23">
@@ -9982,21 +9982,21 @@
         <v>0</v>
       </c>
       <c r="V85" s="23">
-        <v>196</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C86" s="23">
         <v>0</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E86" s="23">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="23">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23">
@@ -10044,21 +10044,21 @@
         <v>0</v>
       </c>
       <c r="V86" s="23">
-        <v>189</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C87" s="23">
         <v>0</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E87" s="23">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="23">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="L87" s="23"/>
       <c r="M87" s="23">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="N87" s="23">
         <v>0</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="23">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="23"/>
       <c r="R87" s="23">
@@ -10106,21 +10106,21 @@
         <v>0</v>
       </c>
       <c r="V87" s="23">
-        <v>186</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C88" s="23">
         <v>0</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E88" s="23">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="23">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23">
@@ -10168,356 +10168,416 @@
         <v>0</v>
       </c>
       <c r="V88" s="23">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="23">
+        <v>0</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="23">
+        <v>0</v>
+      </c>
+      <c r="F89" s="23">
+        <v>0</v>
+      </c>
+      <c r="G89" s="23">
+        <v>126</v>
+      </c>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23">
+        <v>0</v>
+      </c>
+      <c r="J89" s="23">
+        <v>0</v>
+      </c>
+      <c r="K89" s="23">
+        <v>0</v>
+      </c>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23">
+        <v>164</v>
+      </c>
+      <c r="N89" s="23">
+        <v>0</v>
+      </c>
+      <c r="O89" s="23">
+        <v>0</v>
+      </c>
+      <c r="P89" s="23">
+        <v>164</v>
+      </c>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="23">
+        <v>0</v>
+      </c>
+      <c r="S89" s="23">
+        <v>0</v>
+      </c>
+      <c r="T89" s="23">
+        <v>0</v>
+      </c>
+      <c r="U89" s="23">
+        <v>0</v>
+      </c>
+      <c r="V89" s="23">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="25">
+        <v>0</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="25">
+        <v>0</v>
+      </c>
+      <c r="F90" s="25">
+        <v>0</v>
+      </c>
+      <c r="G90" s="25">
+        <v>237</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25">
+        <v>0</v>
+      </c>
+      <c r="J90" s="25">
+        <v>0</v>
+      </c>
+      <c r="K90" s="25">
+        <v>0</v>
+      </c>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25">
+        <v>0</v>
+      </c>
+      <c r="N90" s="25">
+        <v>0</v>
+      </c>
+      <c r="O90" s="25">
+        <v>0</v>
+      </c>
+      <c r="P90" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25">
+        <v>0</v>
+      </c>
+      <c r="S90" s="25">
+        <v>0</v>
+      </c>
+      <c r="T90" s="25">
+        <v>0</v>
+      </c>
+      <c r="U90" s="25">
+        <v>0</v>
+      </c>
+      <c r="V90" s="25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="19"/>
+      <c r="V91" s="19"/>
+    </row>
+    <row r="92" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+    </row>
+    <row r="93" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="68"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="34"/>
+      <c r="S93" s="34"/>
+    </row>
+    <row r="94" spans="1:22" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="37"/>
+      <c r="R94" s="5"/>
+    </row>
+    <row r="95" spans="1:22" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="R95" s="5"/>
+    </row>
+    <row r="96" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
+    </row>
+    <row r="97" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="64"/>
+    </row>
+    <row r="98" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+    </row>
+    <row r="99" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+    </row>
+    <row r="100" spans="1:21" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+    </row>
+    <row r="101" spans="1:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="25">
-        <v>0</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="25">
-        <v>0</v>
-      </c>
-      <c r="F89" s="25">
-        <v>0</v>
-      </c>
-      <c r="G89" s="25">
-        <v>179</v>
-      </c>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25">
-        <v>0</v>
-      </c>
-      <c r="J89" s="25">
-        <v>0</v>
-      </c>
-      <c r="K89" s="25">
-        <v>0</v>
-      </c>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25">
-        <v>0</v>
-      </c>
-      <c r="N89" s="25">
-        <v>0</v>
-      </c>
-      <c r="O89" s="25">
-        <v>0</v>
-      </c>
-      <c r="P89" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="25"/>
-      <c r="R89" s="25">
-        <v>0</v>
-      </c>
-      <c r="S89" s="25">
-        <v>0</v>
-      </c>
-      <c r="T89" s="25">
-        <v>0</v>
-      </c>
-      <c r="U89" s="25">
-        <v>0</v>
-      </c>
-      <c r="V89" s="25">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
-      <c r="V90" s="19"/>
-    </row>
-    <row r="91" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="60"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="32"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="32"/>
-      <c r="O91" s="32"/>
-      <c r="P91" s="32"/>
-      <c r="Q91" s="32"/>
-      <c r="R91" s="32"/>
-      <c r="S91" s="32"/>
-      <c r="T91" s="32"/>
-      <c r="U91" s="32"/>
-      <c r="V91" s="32"/>
-    </row>
-    <row r="92" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B92" s="61"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-    </row>
-    <row r="93" spans="1:22" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" s="59"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="37"/>
-      <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="1:22" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="57"/>
-      <c r="J95" s="57"/>
-      <c r="K95" s="57"/>
-    </row>
-    <row r="96" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" s="57"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="57"/>
-      <c r="I96" s="57"/>
-      <c r="J96" s="57"/>
-      <c r="K96" s="57"/>
-    </row>
-    <row r="97" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
-    </row>
-    <row r="98" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-    </row>
-    <row r="99" spans="1:21" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="62"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="62"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="62"/>
-    </row>
-    <row r="100" spans="1:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="63"/>
-      <c r="J100" s="63"/>
-      <c r="K100" s="63"/>
-    </row>
-    <row r="101" spans="1:21" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="64"/>
-      <c r="R101" s="66"/>
-    </row>
-    <row r="102" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+    </row>
+    <row r="102" spans="1:21" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="62"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="62"/>
+      <c r="R102" s="53"/>
     </row>
     <row r="103" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
+      <c r="A103" s="20"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
-        <v>43</v>
-      </c>
+    <row r="104" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="30"/>
-      <c r="G104" s="31"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
+      <c r="G104" s="30"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
     </row>
-    <row r="105" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="56" t="s">
+    <row r="105" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="30"/>
+      <c r="G105" s="31"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="33" t="s">
-        <v>44</v>
-      </c>
+      <c r="B106" s="63"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="33" t="s">
-        <v>104</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A109" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="T68:T69"/>
-    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="T69:T70"/>
     <mergeCell ref="A101:K101"/>
-    <mergeCell ref="A105:H105"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A69:A70"/>
     <mergeCell ref="A95:K95"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A94:K94"/>
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A97:K97"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
@@ -10527,23 +10587,23 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
     <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="R68:R69"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="U68:U69"/>
-    <mergeCell ref="V68:V69"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
@@ -10558,11 +10618,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A93" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A105" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A95" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A98" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A96" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A94" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A106" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A96" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A99" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A97" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId7"/>

--- a/Data Sources/Vehicles/CurrentULEVRegister.xlsx
+++ b/Data Sources/Vehicles/CurrentULEVRegister.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\virago.internal.dtlr.gov.uk\data\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0023 Region-Country versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AFP\RLTDAll\STS\005 MOTORING AGENCIES\003 OTHER REGULAR OUTPUTS\0023 Region-Country versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C86FD-0D8A-4820-8D41-887F98853CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA37956-390A-4597-AFFB-AC4429331558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEH0170 Scotland" sheetId="2" r:id="rId1"/>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>Department for Transport statistics</t>
   </si>
@@ -688,9 +688,6 @@
     <t>2019 Q4</t>
   </si>
   <si>
-    <t>AUDI E-TRON</t>
-  </si>
-  <si>
     <t>Plug-in Quadricycles</t>
   </si>
   <si>
@@ -842,19 +839,25 @@
     <t>2021 Q2</t>
   </si>
   <si>
-    <t>Top 20 generic models from July 2020 to June 2021</t>
-  </si>
-  <si>
     <t>FORD KUGA</t>
   </si>
   <si>
-    <t>MERCEDES EQC CLASS</t>
-  </si>
-  <si>
-    <t>NISSAN E-NV200</t>
-  </si>
-  <si>
-    <t>PEUGEOT 208</t>
+    <t>2021 Q3</t>
+  </si>
+  <si>
+    <t>Top 20 generic models from October 2020 to September 2021</t>
+  </si>
+  <si>
+    <t>MG 5</t>
+  </si>
+  <si>
+    <t>LAND ROVER RANGE ROVER EVOQUE</t>
+  </si>
+  <si>
+    <t>AUDI A3</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1178,9 +1181,6 @@
     <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1213,15 +1213,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1234,6 +1225,12 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1245,6 +1242,15 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5157,36 +5163,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" style="19" customWidth="1"/>
     <col min="2" max="3" width="17" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="19" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="19" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="19" customWidth="1"/>
-    <col min="18" max="22" width="13.42578125" style="19" customWidth="1"/>
-    <col min="23" max="16384" width="12.5703125" style="19"/>
+    <col min="4" max="4" width="17.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" style="19" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="19" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" style="19" customWidth="1"/>
+    <col min="18" max="22" width="13.44140625" style="19" customWidth="1"/>
+    <col min="23" max="16384" width="12.5546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5197,7 +5203,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5218,7 +5224,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5226,7 +5232,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -5237,7 +5243,7 @@
       <c r="F4" s="8"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
@@ -5272,92 +5278,92 @@
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56" t="s">
+      <c r="J7" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="K7" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="L7" s="55"/>
+      <c r="M7" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" s="56" t="s">
+      <c r="T7" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="U7" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="V7" s="56" t="s">
+      <c r="V7" s="55" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
@@ -5669,7 +5675,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2015</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2016</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>2017</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>2018</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>2019</v>
       </c>
@@ -5979,7 +5985,7 @@
         <v>5066</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>2020</v>
       </c>
@@ -7467,7 +7473,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>31</v>
       </c>
@@ -8523,7 +8529,7 @@
     </row>
     <row r="60" spans="1:22" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" s="44">
         <v>1022</v>
@@ -8584,8 +8590,8 @@
       </c>
     </row>
     <row r="61" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
-        <v>84</v>
+      <c r="A61" s="49" t="s">
+        <v>83</v>
       </c>
       <c r="B61" s="44">
         <v>518</v>
@@ -8646,8 +8652,8 @@
       </c>
     </row>
     <row r="62" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
-        <v>85</v>
+      <c r="A62" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="B62" s="44">
         <v>2094</v>
@@ -8708,8 +8714,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
-        <v>90</v>
+      <c r="A63" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="B63" s="44">
         <v>2277</v>
@@ -8769,18 +8775,18 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="55" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
+    <row r="64" spans="1:22" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="C64" s="44">
         <v>0</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64" s="44">
         <v>0</v>
@@ -8831,93 +8837,131 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" s="9" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="25">
-        <v>0</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="45">
+      <c r="B65" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="68">
+        <v>0</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="44">
         <v>1</v>
       </c>
-      <c r="F65" s="45">
-        <v>0</v>
-      </c>
-      <c r="G65" s="45">
+      <c r="F65" s="44">
+        <v>0</v>
+      </c>
+      <c r="G65" s="44">
         <v>3684</v>
       </c>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45">
+      <c r="H65" s="44"/>
+      <c r="I65" s="44">
         <v>44</v>
       </c>
-      <c r="J65" s="45">
+      <c r="J65" s="44">
         <v>9</v>
       </c>
-      <c r="K65" s="45">
+      <c r="K65" s="44">
         <v>53</v>
       </c>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45">
+      <c r="L65" s="44"/>
+      <c r="M65" s="44">
         <v>127</v>
       </c>
-      <c r="N65" s="45">
+      <c r="N65" s="44">
         <v>5</v>
       </c>
-      <c r="O65" s="45">
-        <v>0</v>
-      </c>
-      <c r="P65" s="45">
+      <c r="O65" s="44">
+        <v>0</v>
+      </c>
+      <c r="P65" s="44">
         <v>132</v>
       </c>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="45">
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44">
         <v>4</v>
       </c>
-      <c r="S65" s="45">
+      <c r="S65" s="44">
         <v>10</v>
       </c>
-      <c r="T65" s="45">
+      <c r="T65" s="44">
         <v>1</v>
       </c>
-      <c r="U65" s="45">
+      <c r="U65" s="44">
         <v>4</v>
       </c>
-      <c r="V65" s="45">
+      <c r="V65" s="44">
         <v>3888</v>
       </c>
     </row>
-    <row r="66" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-    </row>
-    <row r="67" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="69">
+        <v>0</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="69">
+        <v>4</v>
+      </c>
+      <c r="F66" s="69">
+        <v>0</v>
+      </c>
+      <c r="G66" s="69">
+        <v>4480</v>
+      </c>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69">
+        <v>70</v>
+      </c>
+      <c r="J66" s="69">
+        <v>7</v>
+      </c>
+      <c r="K66" s="69">
+        <v>77</v>
+      </c>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69">
+        <v>115</v>
+      </c>
+      <c r="N66" s="69">
+        <v>10</v>
+      </c>
+      <c r="O66" s="69">
+        <v>0</v>
+      </c>
+      <c r="P66" s="69">
+        <v>125</v>
+      </c>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="69">
+        <v>0</v>
+      </c>
+      <c r="S66" s="69">
+        <v>31</v>
+      </c>
+      <c r="T66" s="69">
+        <v>4</v>
+      </c>
+      <c r="U66" s="69">
+        <v>11</v>
+      </c>
+      <c r="V66" s="69">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -8942,8 +8986,8 @@
       <c r="V67" s="23"/>
     </row>
     <row r="68" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="54" t="s">
-        <v>103</v>
+      <c r="A68" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -8968,105 +9012,105 @@
       <c r="V68" s="12"/>
     </row>
     <row r="69" spans="1:22" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="60" t="s">
+      <c r="B69" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="56" t="s">
+      <c r="C69" s="67"/>
+      <c r="D69" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="56" t="s">
+      <c r="F69" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G69" s="56" t="s">
+      <c r="H69" s="55"/>
+      <c r="I69" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56" t="s">
+      <c r="J69" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="J69" s="56" t="s">
+      <c r="K69" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="K69" s="56" t="s">
+      <c r="L69" s="55"/>
+      <c r="M69" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="N69" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="O69" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="P69" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="S69" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="N69" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="O69" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="P69" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="S69" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="T69" s="56" t="s">
+      <c r="T69" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U69" s="56" t="s">
+      <c r="U69" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V69" s="56" t="s">
+      <c r="V69" s="55" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="59"/>
-      <c r="B70" s="46" t="s">
+      <c r="A70" s="62"/>
+      <c r="B70" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="57"/>
-      <c r="S70" s="57"/>
-      <c r="T70" s="57"/>
-      <c r="U70" s="57"/>
-      <c r="V70" s="57"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
     </row>
     <row r="71" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>101</v>
+      <c r="B71" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C71" s="23">
         <v>0</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>101</v>
+      <c r="D71" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E71" s="23">
         <v>0</v>
@@ -9075,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="23">
-        <v>1448</v>
+        <v>1487</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23">
@@ -9114,21 +9158,21 @@
         <v>0</v>
       </c>
       <c r="V71" s="23">
-        <v>1448</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="72" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>101</v>
+      <c r="B72" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C72" s="23">
         <v>0</v>
       </c>
-      <c r="D72" s="23" t="s">
-        <v>101</v>
+      <c r="D72" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E72" s="23">
         <v>0</v>
@@ -9137,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="23">
-        <v>1095</v>
+        <v>803</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23">
@@ -9176,21 +9220,21 @@
         <v>0</v>
       </c>
       <c r="V72" s="23">
-        <v>1095</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C73" s="23">
         <v>0</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>101</v>
+      <c r="D73" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E73" s="23">
         <v>0</v>
@@ -9199,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="23">
-        <v>1036</v>
+        <v>676</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23">
@@ -9238,21 +9282,21 @@
         <v>0</v>
       </c>
       <c r="V73" s="23">
-        <v>1036</v>
+        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="B74" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C74" s="23">
         <v>0</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>101</v>
+      <c r="D74" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E74" s="23">
         <v>0</v>
@@ -9261,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="23">
-        <v>861</v>
+        <v>640</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23">
@@ -9300,21 +9344,21 @@
         <v>0</v>
       </c>
       <c r="V74" s="23">
-        <v>861</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C75" s="23">
         <v>0</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>101</v>
+      <c r="D75" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E75" s="23">
         <v>0</v>
@@ -9323,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="23">
-        <v>803</v>
+        <v>612</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23">
@@ -9362,21 +9406,21 @@
         <v>0</v>
       </c>
       <c r="V75" s="23">
-        <v>803</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C76" s="23">
         <v>0</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>101</v>
+      <c r="D76" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E76" s="23">
         <v>0</v>
@@ -9385,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="23">
-        <v>791</v>
+        <v>541</v>
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23">
@@ -9424,21 +9468,21 @@
         <v>0</v>
       </c>
       <c r="V76" s="23">
-        <v>791</v>
+        <v>541</v>
       </c>
     </row>
     <row r="77" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="B77" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C77" s="23">
         <v>0</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>101</v>
+      <c r="D77" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E77" s="23">
         <v>0</v>
@@ -9447,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="23">
-        <v>671</v>
+        <v>530</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23">
@@ -9486,21 +9530,21 @@
         <v>0</v>
       </c>
       <c r="V77" s="23">
-        <v>671</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C78" s="23">
         <v>0</v>
       </c>
-      <c r="D78" s="23" t="s">
-        <v>101</v>
+      <c r="D78" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E78" s="23">
         <v>0</v>
@@ -9509,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="23">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23">
@@ -9548,21 +9592,21 @@
         <v>0</v>
       </c>
       <c r="V78" s="23">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="B79" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C79" s="23">
         <v>0</v>
       </c>
-      <c r="D79" s="23" t="s">
-        <v>101</v>
+      <c r="D79" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E79" s="23">
         <v>0</v>
@@ -9571,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="23">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23">
@@ -9610,21 +9654,21 @@
         <v>0</v>
       </c>
       <c r="V79" s="23">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>101</v>
+        <v>62</v>
+      </c>
+      <c r="B80" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C80" s="23">
         <v>0</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>101</v>
+      <c r="D80" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E80" s="23">
         <v>0</v>
@@ -9633,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="23">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23">
@@ -9647,7 +9691,7 @@
       </c>
       <c r="L80" s="23"/>
       <c r="M80" s="23">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N80" s="23">
         <v>0</v>
@@ -9656,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="23">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q80" s="23"/>
       <c r="R80" s="23">
@@ -9672,21 +9716,21 @@
         <v>0</v>
       </c>
       <c r="V80" s="23">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="B81" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C81" s="23">
         <v>0</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>101</v>
+      <c r="D81" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E81" s="23">
         <v>0</v>
@@ -9695,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="23">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23">
@@ -9734,21 +9778,21 @@
         <v>0</v>
       </c>
       <c r="V81" s="23">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="B82" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C82" s="23">
         <v>0</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>101</v>
+      <c r="D82" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E82" s="23">
         <v>0</v>
@@ -9757,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="23">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23">
@@ -9796,21 +9840,21 @@
         <v>0</v>
       </c>
       <c r="V82" s="23">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="B83" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C83" s="23">
         <v>0</v>
       </c>
-      <c r="D83" s="23" t="s">
-        <v>101</v>
+      <c r="D83" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E83" s="23">
         <v>0</v>
@@ -9819,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="23">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23">
@@ -9858,21 +9902,21 @@
         <v>0</v>
       </c>
       <c r="V83" s="23">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>101</v>
+      <c r="B84" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C84" s="23">
         <v>0</v>
       </c>
-      <c r="D84" s="23" t="s">
-        <v>101</v>
+      <c r="D84" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E84" s="23">
         <v>0</v>
@@ -9881,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="23">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23">
@@ -9920,21 +9964,21 @@
         <v>0</v>
       </c>
       <c r="V84" s="23">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="B85" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C85" s="23">
         <v>0</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>101</v>
+      <c r="D85" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E85" s="23">
         <v>0</v>
@@ -9943,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="23">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23">
@@ -9957,7 +10001,7 @@
       </c>
       <c r="L85" s="23"/>
       <c r="M85" s="23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N85" s="23">
         <v>0</v>
@@ -9966,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="23"/>
       <c r="R85" s="23">
@@ -9982,21 +10026,21 @@
         <v>0</v>
       </c>
       <c r="V85" s="23">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="B86" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C86" s="23">
         <v>0</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>101</v>
+      <c r="D86" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E86" s="23">
         <v>0</v>
@@ -10047,18 +10091,18 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>101</v>
+        <v>61</v>
+      </c>
+      <c r="B87" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C87" s="23">
         <v>0</v>
       </c>
-      <c r="D87" s="23" t="s">
-        <v>101</v>
+      <c r="D87" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E87" s="23">
         <v>0</v>
@@ -10067,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="23">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23">
@@ -10106,21 +10150,21 @@
         <v>0</v>
       </c>
       <c r="V87" s="23">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="B88" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C88" s="23">
         <v>0</v>
       </c>
-      <c r="D88" s="23" t="s">
-        <v>101</v>
+      <c r="D88" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E88" s="23">
         <v>0</v>
@@ -10129,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="23">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23">
@@ -10168,21 +10212,21 @@
         <v>0</v>
       </c>
       <c r="V88" s="23">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="B89" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C89" s="23">
         <v>0</v>
       </c>
-      <c r="D89" s="23" t="s">
-        <v>101</v>
+      <c r="D89" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E89" s="23">
         <v>0</v>
@@ -10191,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="23">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="23">
@@ -10205,7 +10249,7 @@
       </c>
       <c r="L89" s="23"/>
       <c r="M89" s="23">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="N89" s="23">
         <v>0</v>
@@ -10214,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="23">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="23"/>
       <c r="R89" s="23">
@@ -10230,21 +10274,21 @@
         <v>0</v>
       </c>
       <c r="V89" s="23">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>100</v>
       </c>
       <c r="C90" s="25">
         <v>0</v>
       </c>
-      <c r="D90" s="25" t="s">
-        <v>101</v>
+      <c r="D90" s="69" t="s">
+        <v>100</v>
       </c>
       <c r="E90" s="25">
         <v>0</v>
@@ -10253,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="25">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="H90" s="25"/>
       <c r="I90" s="25">
@@ -10292,10 +10336,13 @@
         <v>0</v>
       </c>
       <c r="V90" s="25">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="Z90" s="68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -10319,20 +10366,20 @@
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
     </row>
-    <row r="92" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="67" t="s">
+    <row r="92" spans="1:26" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
       <c r="L92" s="32"/>
       <c r="M92" s="32"/>
       <c r="N92" s="32"/>
@@ -10345,20 +10392,20 @@
       <c r="U92" s="32"/>
       <c r="V92" s="32"/>
     </row>
-    <row r="93" spans="1:22" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="68" t="s">
+    <row r="93" spans="1:26" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="68"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="66"/>
       <c r="L93" s="34"/>
       <c r="M93" s="34"/>
       <c r="N93" s="34"/>
@@ -10368,84 +10415,84 @@
       <c r="R93" s="34"/>
       <c r="S93" s="34"/>
     </row>
-    <row r="94" spans="1:22" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="66" t="s">
+    <row r="94" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
       <c r="K94" s="37"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" spans="1:22" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="65" t="s">
+    <row r="95" spans="1:26" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="63"/>
+      <c r="R95" s="5"/>
+    </row>
+    <row r="96" spans="1:26" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
+    </row>
+    <row r="97" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
-      <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="64"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-    </row>
-    <row r="97" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64"/>
-    </row>
-    <row r="98" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+    </row>
+    <row r="98" spans="1:21" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-    </row>
-    <row r="99" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+    </row>
+    <row r="99" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
         <v>58</v>
       </c>
@@ -10460,58 +10507,58 @@
       <c r="J99" s="41"/>
       <c r="K99" s="41"/>
     </row>
-    <row r="100" spans="1:21" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+    </row>
+    <row r="101" spans="1:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="51"/>
-      <c r="J100" s="51"/>
-      <c r="K100" s="51"/>
-    </row>
-    <row r="101" spans="1:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="61" t="s">
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
+    </row>
+    <row r="102" spans="1:21" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="61"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="61"/>
-    </row>
-    <row r="102" spans="1:21" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="62"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="R102" s="53"/>
-    </row>
-    <row r="103" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="R102" s="52"/>
+    </row>
+    <row r="103" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -10539,56 +10586,41 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
     </row>
-    <row r="106" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="63" t="s">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B106" s="63"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="63"/>
-      <c r="H106" s="63"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="T69:T70"/>
-    <mergeCell ref="A101:K101"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="A96:K96"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A95:K95"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A97:K97"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D69:D70"/>
@@ -10605,16 +10637,31 @@
     <mergeCell ref="U69:U70"/>
     <mergeCell ref="V69:V70"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A97:K97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
